--- a/国内联播快讯.xlsx
+++ b/国内联播快讯.xlsx
@@ -15,14 +15,14 @@
     <sheet name="new_2020-02-28" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'new_2020-02-28'!$A$1:$C$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'new_2020-02-28'!$A$1:$C$430</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="454">
   <si>
     <t>国内联播快讯</t>
   </si>
@@ -251,10 +251,6 @@
   </si>
   <si>
     <t>中央广播电视总台央视动漫集团成立中央广播电视总台央视动漫集团今天（1月5日）揭牌成立，成立动漫集团是总台着眼引导青少年儿童扣好人生第一粒扣子，加强动画原创，开发优质IP，传承弘扬中华优秀文化，构建具有全球影响力的动漫IP生态圈，打造全媒体传播、全产业链运营、国内领先、世界一流的动漫集团的具体举措，标志着总台在动漫领域实现全方位、深层次的产业升级，使总台建设“国际一流新型主流媒体”的战略目标在动漫领域迈出坚实一步</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>第36届中国·哈尔滨国际冰雪节开幕今天（1月5日），第36届中国·哈尔滨国际冰雪节在哈尔滨冰雪大世界开幕，本届冰雪节以采冰节、冰雪大世界、兆麟公园冰灯游园会等为精品，同时举办冰雪旅游、冰雪文化、冰雪体育等400余项活动</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1100,568 +1096,683 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>1月我国对外承包工程新签合同额同比增长74.2%商务部今天（2月24日）发布的数据显示，1月份，我国对外承包工程新签合同额1082.5亿元人民币，同比增长74.2%，其中，上亿美元项目31个，比上年同期增加18个，主要集中在交通运输建设、电力工程建设和石油化工等领域</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C919大型客机106架机转场东营展开试飞昨天（2月23日），C919客机第六架试飞飞机——106架机从上海浦东机场转场至山东东营胜利机场，将开展验证客舱照明、外部噪声等相关科目的试飞任务，它的试飞意味着C919大型客机所有试飞飞机均投入试飞工作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民银行下调支农支小再贷款利率至2.5%中国人民银行今天（2月26日）表示，在前期已经设立3000亿元疫情防控专项再贷款的基础上，增加再贷款再贴现专用额度5000亿元，同时，下调支农、支小再贷款利率0.25个百分点至2.5%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北地区中晚稻最低收购价预案执行时间延长国家粮食和物资储备局今天（2月26日）下发通知，将东北地区2019年中晚稻最低收购价预案执行截止日期从2月29日延长至3月31日，通知要求各地严格落实粮食安全省长责任制，统筹抓好科学防控和秋粮收购工作，坚决守住农民“种粮卖得出”的底线</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国医用N95口罩日产能突破100万只记者今天（2月26日）从国家发展改革委了解到，截至2月24日，全国医用N95口罩日产能达到107万只，是2月1日的4.7倍，与此同时，国家统一调度，全力保障湖北等重点地区需求，近期每天调度量都在15万只以上</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过对在轨卫星资源的科学调度，基本实现了全国陆域2米卫星数据季度覆盖，有效覆盖比达90%以上</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三届进博会首度举行网上签约今天（2月26日），中国国际进口博览会首度举行网上签约会，包括法国米其林集团、日本武田药品工业株式会社在内的四家企业完成了“云签约”，截至目前，进博会签约展览面积已超过规划面积的50%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北中欧中亚班列今天恢复常态化开行今天（2月26日），河北石家庄开往乌兹别克斯坦首都塔什干的中亚班列的开行，标志着石家庄中欧、中亚班列全面恢复常态化开行，这趟列车一共装载了42个集装箱，货品包括汽车配件、机械设备等</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>首趟进境水果班列从越南直达广西首趟进境水果班列昨天（2月25日）从越南同登直达广西凭祥，这是国铁凭祥口岸物流中心进境水果直通班列的首次开行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>博斯腾湖冬季生态输水达上亿立方米博斯腾湖为新疆孔雀河中下游荒漠植被地区生态输水一个月以来输水量超过上亿立方米，灌溉覆盖30万亩荒漠植被，孔雀河中下游流域遍布着大量野生胡杨林和荒漠植物，是塔里木河下游“绿色走廊”的重要组成部分</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家移民管理局出台措施恢复出入境秩序今天（2月27日），国家移民管理局出台十项措施有序恢复出入境秩序，包括分区分级有序开放公安出入境窗口服务；为参与疫情防控的中外人员提供出入境便利；严把国门，强化出入境窗口和通关现场防疫抗疫措施；健全口岸联防联控机制等内容</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>疫情期间全国医疗废物废水有序处理生态环境部通报，截至2月24日，全国医疗废物日处置能力为5830.8吨，湖北省及武汉市处置能力大幅提高，目前，全国99.2%的定点医院建有污水处理设施，剩余21家定点医院采取应急措施处理污水，这些处理设施正常运行并严格落实消毒措施</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二三航空成立 首批接收35架国产飞机东航旗下一二三航空26号正式成立，在市场化运营国产飞机上先行一步，一二三航空首批接收35架ARJ21-700飞机，计划2020年至2024年完成交付，今年9月将有3架投入运营，未来，一二三航空还将作为首发客户分批引进20架C919大型国产飞机，投入干线航班运营，到2030年实现国产飞机的规模化运营</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019中国科学十大进展发布今天（2月27日），科技部高技术研究发展中心发布2019年度中国科学十大进展，探测到月幔物质出露的初步证据、构架出面向人工通用智能的异构芯片、基于材料基因工程研制出高温块体金属玻璃、青藏高原发现丹尼索瓦人等10项。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国科学家首次揭示月球背面浅层结构今天（2月27日），国际学术期刊《科学·进展》发表了我国在月球深空探测领域取得的重大发现，科研团队利用嫦娥四号测月雷达，首次揭示了月球背面着陆区域40米深度内的地质分层结构，对了解月球撞击、火山活动及月球背面的地质演化具有重要意义</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“远望7号”首赴大西洋执行卫星海上测控今天（2月27日），我国最新一代航天远洋测量船“远望7号”首次奔赴大西洋，执行卫星海上测控任务，此次任务航程远、航线新，“远望7号”认真开展各项技术工作，确保顺利航行</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界极危鸟类青头潜鸭现身云南保山近日，云南保山青华海国家湿地公园的工作人员监测到一只雄性青头潜鸭，青头潜鸭属于世界极危鸟类，全球不超过1000只，2019年1月，青头潜鸭曾在保山大海子水库首次被发现，</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输部：分区分级恢复道路运输交通运输部日前下发通知，要求疫情各地落实分区分级管控要求，有序恢复道路客运、城市公交和出租车等城乡道路运输服务。除湖北省和北京市以外，其他暂未恢复省际道路客运服务的地区不得阻碍其他非高风险的县市区发出的客运车辆进入或途经本地。</t>
+  </si>
+  <si>
+    <t>我国将用五年完成重点区域自然资源确权自然资源部表示，我国将用5年左右基本完成全国重点区域自然资源统一确权登记。今年，将启动珠江流域西江干流（中下游）、淮河干流（中游）、根河等5个重点国有林区和部分海域、无居民海岛自然资源确权登记工作。</t>
+  </si>
+  <si>
+    <t>今起铁路部门优化电子客票退票流程自2月28日起，全国铁路进一步优化电子客票退票手续。对于已领取报销凭证的电子客票或使用现金购买的电子客票，旅客可先行在网上办理退票，可在180天内到任何一个车站完成退款等相关手续。</t>
+  </si>
+  <si>
+    <t>杭州亚运会重点工程东苕溪大桥合龙杭州亚运会重点配套工程杭州绕城西复线东苕溪大桥今天（2月28日）合龙，该工程可让杭州亚运会主场馆与湖州德清的排球馆以及各个分场馆实现一小时交通圈。</t>
+  </si>
+  <si>
+    <t>目前，浙江交通集团15个高速公路、铁路项目已经复工复产。西藏湘河水利枢纽截流 主体工程施工国家重点水利工程、总投资27亿多元的西藏湘河水利枢纽及配套灌区工程今天（2月28日）截流，开始主体工程施工。建成后，水库总库容量可达1.134亿立方米，年发电量可达1.38亿千瓦时，预计2022年12月完工。</t>
+  </si>
+  <si>
+    <t>中越米轨国际联运实现“双突破”从2月19日恢复运营以来，中越米轨国际联运累计完成货运运输10.6万吨，同比增加1.5万吨。中越米轨国际联运采用双机牵引，每天开行2对国际货物联运列车，取得了列车单趟总重突破1000吨和今年以来运输总量突破10万吨的“双突破”。</t>
+  </si>
+  <si>
+    <t>东部部分地区迎来雨雪天气今天（2月28日），山东自西向东迎来一次大范围降雪天气，部分高速公路临时关闭。吉林部分地区、河北邯郸迎来降雪。山西临汾抓住雨雪天气有利时机，进行联合增雨雪作业，为冬小麦返青增加土壤墒情。</t>
+  </si>
+  <si>
+    <t>安徽九华山风景区雨后间隙频频出现曼妙壮阔的春日云海景观，宛如一幅幅泼墨山水画卷。</t>
+  </si>
+  <si>
+    <t>内蒙古多地迎来上万只迁徙候鸟随着气温不断回升，这几天，内蒙古巴彦淖尔市的乌兰布和沙漠湿地迎来数以万计的秋沙鸭、赤嘴潜鸭等迁徙候鸟，给沉寂了一个冬季的沙漠湿地带来了生机。</t>
+  </si>
+  <si>
+    <t>教育部：中小学高校错时错峰开学 教育部日前通知，要求做好中小学（含幼儿园、中等职业学校）错区域、错层次、错时开学方案。原则上高三年级实行省域同步、初三年级同一市域同步。高校开学准备工作要落实分区分级精准防控策略，坚持属地原则，错峰返校、错峰开学。</t>
+  </si>
+  <si>
+    <t>公安部：多项交管服务新措施明起实施 从3月1日起，公安部将在部分地区试点实行接受教育减免交通违法记分制度、机动车检验合格标志采用电子化等新措施，与此同时，租赁车交通违法处理简捷快办等多项改革措施也将于今年3月在全国全面实施。</t>
+  </si>
+  <si>
+    <t>临时性调降小规模纳税人增值税税率 财政部、税务总局最新公告，自2020年3月1日至5月31日，对湖北省增值税小规模纳税人，适用3%征收率的应税销售收入，免征增值税；适用3%预征率的预缴增值税项目暂停预缴增值税。其他省、自治区、直辖市的增值税小规模纳税人，适用3%同档税率的均按1%征收。</t>
+  </si>
+  <si>
+    <t>中国国债正式纳入摩根大通债券指数 昨天（2月28日）起，中国国债正式纳入摩根大通全球新兴市场政府债券指数。中国人民银行表示，这充分反映了国际投资者对中国经济长期健康发展的信心。截至目前，中国债券市场存量规模达100.4万亿元人民币。其中，国际投资者持债规模同比增长22%。</t>
+  </si>
+  <si>
+    <t>农发行优惠配套政策帮助企业复工复产 中国农业发展银行今天（2月29日）推出优惠配套政策，服务疫情防控和企业有序复工复产。措施主要包括1200亿元专项信贷额度支持中小微企业复工复产；单列生猪全产业链发展贷款计划100亿元等。截至目前，已审批相关贷款554.58亿元。</t>
+  </si>
+  <si>
+    <t>国铁集团全力保障运输春耕农资 连日来，国铁集团组织各铁路部门安排运力，优先保障化肥主产地外运需求，减免运输及仓储等相关费用。今年以来，国家铁路化肥及农药运量完成875万吨，同比增加96万吨，增长12.3%。</t>
+  </si>
+  <si>
+    <t>国家邮政局：邮政业完成八成复工复产任务截至2月28日，全国邮政行业复工人员达246万人，复工率达90.2%，快件日揽收量和投递量分别达到1.62亿件和1.6亿件，复产率分别达到81%和80%。邮政企业和快递企业承运、寄递疫情防控物资累计4.05万吨。</t>
+  </si>
+  <si>
+    <t>国家林草局：坚决取缔食用野生动物市场和交易国家林草局近日发出通知，要求坚决取缔非法野生动物市场，严厉打击非法野生动物交易，全面整顿野生动物人工繁育和经营利用从业机构，停止一切以食用为目的的经营利用陆生野生动物活动。</t>
+  </si>
+  <si>
+    <t>海阳核电1号机组首次大修并网成功昨晚（2月28日），我国三代核电自主化依托项目海阳核电1号机组完成首次换料大修，一次并网成功。此次大修完成了5505项检修及试验项目，历时45天，创造了我国核电机组首次换料大修最短工期纪录。</t>
+  </si>
+  <si>
+    <t>成都双流国际机场本周恢复3条国际航线昨天（2月28日）凌晨，成都至德国法兰克福航线恢复定期飞行，本周，该机场已恢复包括成都至开罗等在内的3条国际航线。目前，成都双流机场国际及地区航线运营数量已恢复至26条。</t>
+  </si>
+  <si>
+    <t>即日起 减免部分涉企征信服务收费 记者今天（3月1日）从国家发展改革委获悉，从2020年3月1日至6月30日，免收企业应收账款质押登记、变更登记、异议登记费。免收农村商业银行、农村合作银行、农村信用社等10类金融机构征信查询服务费，预计可减轻企业负担1.64亿元。</t>
+  </si>
+  <si>
+    <t>2月份全国铁路发送货物3.1亿吨 2月份，全国铁路累计发送货物3.1亿吨，同比增长4.5%。自2月17日以来，每日发送货物连续保持在1100万吨以上。在高效运送疫情防控物资的基础上，确保了电煤、春耕备耕物资以及复工企业原材料等重点物资运输需求。</t>
+  </si>
+  <si>
+    <t>我国向新西兰出口首批生姜 2月28日，我国出口新西兰的首批新鲜生姜正式装箱运往新西兰。这批生姜共21.6吨，产自山东安丘、青州，大约25天运抵新西兰。这是我国生姜获得新西兰市场准入之后，500吨生姜出口合同的一部分。</t>
+  </si>
+  <si>
+    <t>助力复工复产 北京健康宝发布上线 今天（3月1日），北京市正式上线并推广小程序“北京健康宝”，这是北京市大数据中心针对当前新冠肺炎疫情防控需要，方便个人查询自身防疫相关健康状态的小工具，在京及进返京人员均可用其作为复工复产、日常出行的防疫相关健康状态参考。</t>
+  </si>
+  <si>
+    <t>电视剧《谷文昌》今晚央视播出 电视剧《谷文昌》今晚（3月1日）起在央视综合频道播出。该剧讲述了党的好干部谷文昌带领福建东山人民治沙造林、让“荒岛”变“宝岛”，用实际行动赢得百姓爱戴和敬仰的故事，再现了一个不忘初心、牢记使命、清廉务实的人民公仆形象。</t>
+  </si>
+  <si>
+    <t>蔡雪桐获单板滑雪美国公开赛冠军当地时间2月29日举办的美国公开赛单板滑雪U型场地比赛上，中国选手蔡雪桐以88.16分夺得冠军。这是中国运动员首次获得该赛事的金牌。美国公开赛是一项传统的单板滑雪顶级职业赛事，是U型场地本赛季最后一场也是最重要的一场国际A级赛事。</t>
+  </si>
+  <si>
+    <t>我国最大内陆淡水湖博斯腾湖今起禁渔从今天（3月1日）起，我国最大内陆淡水湖博斯腾湖进入为期112天的禁渔期，同时开展专项治理活动。博斯腾湖位于新疆塔里木盆地东北缘，水域面积上千平方公里，湖中水产丰富，是新疆最大的渔业生产基地。</t>
+  </si>
+  <si>
+    <t>中小微企业贷款可申请延期还本付息银保监会、人民银行等五部门联合发布通知，今年1月25日至6月30日期间，如果中小微企业，包括小微企业主和个体工商户，受疫情影响不能按时偿还银行的贷款本金和利息，可以向银行提出延期申请，最长可以延长到今年6月30日，免收罚息。</t>
+  </si>
+  <si>
+    <t>我国口罩日产能产量双双突破一亿只 国家发展改革委最新调度数据显示，2月29日我国口罩日产能达到1.1亿只，日产量达到1.16亿只，双双突破1亿只，分别是2月1日的5.2倍和12倍，进一步缓解了口罩供需矛盾。</t>
+  </si>
+  <si>
+    <t>全国有线电视网络整合工作启动 国家广播电视总局今天（3月2日）启动“全国一网”整合工作。“全国一网”整合由中国广播电视网络有限公司联合各省级网络公司战略投资者共同组建。</t>
+  </si>
+  <si>
+    <t>河北902个项目今天开工河北多地的春季重点项目今天集中开工，共开工项目902个，总投资5151.32亿元，涉及战略新兴产业、先进装备制造、生物医药健康等领域。</t>
+  </si>
+  <si>
+    <t>江西推进“电商助农行动”为破解受疫情影响的农产品滞销难题，江西动员省内电商平台和电商企业展开“电商助农行动”，借助电商渠道，近半个月累计销售330多万单，销售金额超过3亿元。</t>
+  </si>
+  <si>
+    <t>渝怀铁路增建二线一特大桥合龙渝怀铁路增建二线控制性工程——怀化舞水湾滩特1号特大桥今天合龙。横跨重庆、贵州、湖南三省市的渝怀铁路承担着武陵山区脱贫发展的物资运输任务，因原有线路无法满足需求，所以新增建设二线。</t>
+  </si>
+  <si>
+    <t>央视频“春暖花开 国聘行动”启动中央广播电视总台“央视频”携手国投集团，与国资委共同合作的大型线上招聘活动今天（3月2日）启动。求职者可通过“央视频”在线浏览相关招聘岗位，并投递简历。首批招录名额达75000人。</t>
+  </si>
+  <si>
+    <t>大型灌区累计灌溉农田1770多万亩 水利部发布，截至3月2日，全国有12个省98处大型灌区开始春灌。华北、黄淮海平原等冬麦区已累计灌溉农田1770多万亩，引水22亿立方米。目前各地灌区土壤墒情总体较好。</t>
+  </si>
+  <si>
+    <t>新冠疫情期间网上复诊医保可报销 国家医保局、国家卫生健康委联合发出通知，新冠肺炎疫情防控期间，对符合要求的互联网医疗机构为参保人提供的常见病、慢性病线上复诊服务，各地可依规纳入医保基金支付范围。</t>
+  </si>
+  <si>
+    <t>疫情防控期间要维护好职工合法权益 全总近日下发通知，对受疫情防控措施影响不能提供正常劳动的职工，要求各级工会组织依法督促所在企业不得在疫情防控期间解除劳动合同或退回被派遣劳动者。对于企业安排以灵活方式在家上班的职工，按照正常工作期间的工资收入支付工资。</t>
+  </si>
+  <si>
+    <t>三部门联合发布16个新职业 近日，人力资源社会保障部、市场监管总局、国家统计局联合向社会发布了智能制造工程技术人员、网约配送员、呼吸治疗师等16个新职业。这是自2015年版《中华人民共和国职业分类大典》颁布以来发布的第二批新职业。</t>
+  </si>
+  <si>
+    <t>国家林草局成立指挥部防控沙漠蝗灾 联合国粮农组织向全球发布沙漠蝗灾害预警之后，国家林草局日前成立了草原蝗灾防治指挥部，组织专家就沙漠蝗灾可能对我国草原带来的影响进行科学研判，制定防控措施。</t>
+  </si>
+  <si>
+    <t>C919飞机在南昌展开湿地滑行试验随着南昌瑶湖机场的全面复工，我国自主研制的国产大飞机C919飞机105架机昨天（3月2日）在南昌瑶湖机场跑道进行了湿地滑行试验，测试在湿润的地面上飞机滑行、着陆系统等各方面的性能。</t>
+  </si>
+  <si>
+    <t>“华龙一号”全球首堆热试基本完成 我国具有完全自主知识产权的三代核电“华龙一号”全球首堆——中核集团福清核电5号机组热态性能试验基本完成。全面验证了核电机组在热态运行时的可靠性，相关参数满足设计要求，为后续机组装料、并网发电等奠定了坚实基础。</t>
+  </si>
+  <si>
+    <t>全国公安侦办涉野生动物刑事案件948起 按照公安部统一部署，疫情防控以来，各地公安机关严厉打击破坏野生动物资源违法犯罪活动。截至3月2日，共侦办涉及野生动物的刑事案件948起、查处行政案件2147起，收缴野生动物9.2万头（只）、野生动物制品5300多公斤。</t>
+  </si>
+  <si>
+    <t>济南铁警缴获假冒伪劣口罩32万余只近日，济南铁路公安处根据线索，打掉一个销售伪劣疫情防控物资的犯罪团伙，抓获16名犯罪嫌疑人，缴获假冒伪劣口罩32万只，捣毁储存、销售窝点15处，追缴赃款15万余元。</t>
+  </si>
+  <si>
+    <t>一季度内现有项目用地审批清零 自然资源部表示，继续推进下放土地审批权改革。特别是当前，要集中力量、全面完成已经受理的各类建设项目用地审批，一季度内现有存量项目审批清零，全力支持企业复工复产，保障后续建设项目落地。</t>
+  </si>
+  <si>
+    <t>嫦娥四号完成第十五月昼科学探测 嫦娥四号探测器于昨日（3月2日）顺利完成第十五月昼科学探测工作，进入第十五月夜休眠期。本次月昼期间有效载荷按计划开机工作，地面接收科学探测数据正常。根据探测规划路径，“玉兔二号”月球车已累计行驶399.788米。</t>
+  </si>
+  <si>
+    <t>东北地区出现较强降雪受冷空气影响，昨天（3月2日）开始，我国东北地区迎来大风降温和降雪天气，局部出现暴雪。在黑龙江绥芬河，三个小时内积雪深度就达10厘米。中央气象台预计，北方此次降水持续短，雨雪之后会迅速放晴。</t>
+  </si>
+  <si>
+    <t>海关总署：严格防控 应对疫情输入风险为遏制疫情通过口岸传播扩散，全国海关对所有出入境人员严格实施100%查验健康申报，全面开展体温监测筛查，严密实施医学巡查，对来自疫情严重国家或地区的交通工具全部实施登临检疫，严格实施入境交通工具的消毒。截至3月4日零时，全国海关共发现入境有症状旅客6728人，其中疑似病例779例，检出新冠病毒核酸阳性75例。</t>
+  </si>
+  <si>
+    <t>全国煤炭产能恢复正常 能源供给保障充足 国家能源局今天（3月4日）发布的数据显示，截至3月3日，全国煤矿复产率达到83.4%，煤炭产量已恢复到常年同期水平，在运核电机组已经全部复产，电力、油气供应能力充裕，能源供给保障稳定。</t>
+  </si>
+  <si>
+    <t>今年首列中亚钾肥专列过境 连云港今年首列过境江苏连云港港的中亚钾肥专列，昨天（3月3日）在中哈国际物流基地完成装卸，发往马来西亚槟城港。这列钾肥专列2月22日从乌兹别克斯坦塔什干发出，3月2日凌晨到达连云港，共有108个集装箱，总重达2840.4吨，是历次过境钾肥载重量最多的一次。</t>
+  </si>
+  <si>
+    <t>三江源国家公园宏观生态格局继续好转 青海省日前发布《三江源国家公园公报（2019）》。公报显示，三江源生态状况总体稳定，宏观生态格局继续好转，水源涵养量年均增幅6%以上。草地覆盖率、产草量分别比十年前提高了11%和30%以上。</t>
+  </si>
+  <si>
+    <t>湖南破获非法收购出售濒危野生动物制品案 湖南森林警方日前破获非法收购、出售珍贵濒危野生动物制品案，缴获高鼻羚羊角997根，象牙制品3727克，犀牛角制品327.9克，雪豹、野骆驼等其它野生动物制品1200多件，涉案金额高达2600多万元。</t>
+  </si>
+  <si>
+    <t>中央广播电视总台音频客户端“云听”上线 中央广播电视总台高品质声音聚合分发平台“云听”今天（3月4日）正式上线。“云听”依托总台优势资源，除对总台央广、国广的优质音频资源进行收录、分发以外，还打通总台5G智能新媒体中台，对总台央视视频内容进行音频化再生产，深入开发总台独家版权资源，为各类终端用户提供优质的声音产品和服务。</t>
+  </si>
+  <si>
+    <t>我国地基量子密钥分发距离刷新世界纪录 记者从中国科学技术大学获悉，该校潘建伟院士团队近期与清华大学等机构合作，实现了500公里级真实环境光纤的双场量子密钥分发和相位匹配量子密钥分发，创造了新的世界纪录。该成果将大幅提升远距离光纤量子保密通信网络的安全性。</t>
+  </si>
+  <si>
+    <t>民政部：中、低风险区域养老机构可逐步开放民政部要求，在确保疫情防控到位的前提下，无确诊病例县（区）的养老机构，经当地党委政府同意后，可有序恢复开放；中、低风险区域的养老机构，按照当地疫情联防联控机制统一部署，逐步恢复开放。</t>
+  </si>
+  <si>
+    <t>截至2月底全国发行地方债券超万亿元 财政部最新消息，截至2月底，2020年发行地方债券12230亿元，全部为新增债券，完成中央提前下达额度（18480亿元）的66.2%，平均发行利率3.44%，比2019年下降3个基点。</t>
+  </si>
+  <si>
+    <t>银保监会：将组织开展意外险市场清理整顿银保监会今天（3月5日）发布《关于加快推进意外险市场改革的意见》，将逐步淘汰赔付率过低、渠道费用过高、定价明显不合理的产品；针对搭售和捆绑销售、手续费畸高、财务业务数据不真实等问题，还将组织开展意外险市场清理整顿。</t>
+  </si>
+  <si>
+    <t>铁路部门阶段性下浮货运杂费 国铁集团决定，自3月6日起至6月30日，对部分铁路货运杂费实施阶段性减半核收政策，进一步降低企业物流成本，预计向企业和货主让利约3.8亿元。有关降费信息将在铁路货运95306网站进行公告。</t>
+  </si>
+  <si>
+    <t>百家银行将支持全国1000万家小微企业复工复产全国工商联今天（3月5日）宣布，将与中国银行业协会等共同发起“无接触贷款助微计划”。联合超过100家银行，通过手机在半年内向全国约1000万家小微企业、个体经营者及农户提供信用贷款，支持他们有序复工复产，以及疫情结束之后的扩大生产。</t>
+  </si>
+  <si>
+    <t>北京将对3000家企业启动研发经费资金支持 今天（3月5日），中关村科技型小微企业研发经费支持资金启动申报。该政策将惠及约3000家企业，符合要求的最高可获得20万经费补贴。疫情发生后，中关村整合出台了10项支持措施，加速科技成果在疫情防控一线转化应用。</t>
+  </si>
+  <si>
+    <t>福建率先实现医保电子凭证互联网医院结算 日前，福建在全国率先使用医保电子凭证结算，实现互联网医院的医保结算。通过这项服务，不但在互联网医院看病能用医保自动结算，个人支付部分也可以在线支付。同时实现互联网复诊、处方续方、药品配送到家等。</t>
+  </si>
+  <si>
+    <t>广西启动“五网”建设 构建现代化基础设施体系 广西日前启动实施交通网、能源网、信息网、物流网、地下管网等三年建设计划，将围绕建设西部陆海新通道、全面对接粤港澳大湾区等重大战略，重点推进2800多个项目建设，加快构建一个智能绿色、安全可靠的现代化基础设施体系。</t>
+  </si>
+  <si>
+    <t>《青海湖生态环境保护状况》发布 日前，青海湖景区保护利用管理局发布《青海湖生态环境保护状况》白皮书，首次系统、完整地反映了青海湖生态保护成效，多项指标表明，青海湖“水－鸟－鱼”生态系统持续向好。</t>
+  </si>
+  <si>
+    <t>海关开展专项行动 查获走私野生动物制品20.3吨 今天（3月5日），海关总署开展打击野生动物走私“护卫”2020专项行动，广州、成都、合肥等海关缉私人员抓获犯罪嫌疑人12名，现场查扣国家二级保护动物蛤蚧等野生动物制品20.3吨。犯罪嫌疑人为牟取利益，将来自境外的野生动物制品走私进境，并贩卖至广东等地药材集散市场。海关总署表示，下一步将继续严厉打击野生动物及其制品走私违法犯罪。</t>
+  </si>
+  <si>
+    <t>人社部：阶段性减免社保费预计超5000亿 记者今天（3月6日）从人社部获悉，目前各地已帮助8300多家重点企业累计招工28万人。在阶段性减免社保费方面，预计养老、失业、工伤三项社会保险共为企业和个体工商户降低成本5000亿元以上。</t>
+  </si>
+  <si>
+    <t>北京冬奥组委：确保筹办任务按时优质完成 近日，北京冬奥组委通过视频方式参加国际奥委会执委会会议。国际奥委会主席巴赫对北京冬奥会筹办工作取得的进展表示赞赏。北京冬奥组委表示，将尽最大努力，做到疫情防控和冬奥筹办两手抓、两不误，确保各项筹办任务按时、优质完成。</t>
+  </si>
+  <si>
+    <t>总投资120亿美元的石化项目落户辽宁 今天（3月6日），总投资120亿美元的石化产业项目落户辽宁，沈阳、香港、休斯顿等三大洲六个城市的分会场同时进行网上签约。项目建成后，辽宁盘锦将成为世界级聚烯烃、化学品生产基地。</t>
+  </si>
+  <si>
+    <t>上海新添百亿级集成电路产业项目 昨天（3月5日）下午，又一百亿级集成电路项目签约落地上海自贸区临港新片区。项目预计投资22亿美元，将有助于拉动临港新片区相关产业集聚，完备产业生态。《临港新片区优质企业跨境人民币结算便利化方案》也在当天发布，通过进一步简化跨境人民币业务结算业务，实现更高水平的贸易投资便利化。</t>
+  </si>
+  <si>
+    <t>青海至泰国曼谷首趟铁海快线 国际班列开行青海至曼谷首趟铁海快线国际班列昨天（3月5日）开行。班列经青海、甘肃、重庆、贵州等省市，到广西钦州港，再船运至泰国曼谷，全程铁路运距3500公里，海运距离1400海里，运行时间约18天。</t>
+  </si>
+  <si>
+    <t>银保监会：继续加强疫情期间保险服务 工作记者从银保监会了解到，对于运输防疫物资和重要生活物资的物流企业车辆，可适当顺延保险期限、延期缴纳车险保费。鼓励保险公司适当减免疫情期间停运的营运车辆、船舶、飞机部分保险费用。湖北地区1月23日起车险保单已适当顺延。</t>
+  </si>
+  <si>
+    <t>我国农村集体产权制度改革试点 今年全面推开中央农办、农业农村部今天（3月7日）发布，今年，农村集体产权制度改革试点将在31个省份全面推开。2015年我国开展农村集体产权制度改革试点以来，超过22.7万个村完成股份合作制改革，全部试点任务将在明年10月底前基本完成。</t>
+  </si>
+  <si>
+    <t>上海浦东新区35个重大工程集中复开工今天（3月7日），上海浦东新区重大工程全面复工正式启动。本批共复工35项重大工程，涉及重大基础设施、生态环境、文化产业、卫生养老等项目，总投资418亿元。这是疫情发生以来，上海最大规模的重大工程复工行动。</t>
+  </si>
+  <si>
+    <t>口罩核心材料产能获突破 中国石化今天（3月7日）宣布成功生产出口罩核心紧缺材料——熔喷布，每天可产6吨，能满足600万片医用平面口罩的生产。中国石化4月中旬还将建成8条熔喷布生产线，届时，每天可供1800万片医用平面口罩所需布料。</t>
+  </si>
+  <si>
+    <t>江苏开行中欧班列频次恢复正常 截至3月7日，今年以来由江苏开行的中欧班列达178列，同比去年增幅33%。疫情期间，江苏启动国际班列过境集装箱疫情防控专项方案，通过智能化无人作业、不见面审批等方式，保障通行“零延时”，目前频次已经恢复正常。</t>
+  </si>
+  <si>
+    <t>广东法院宣判一起非法收购濒危野生动物案 广州花都区法院昨天（3月6日）一审公开宣判一起非法收购珍贵濒危野生动物案。被告人陈某某为牟取非法利益，介绍他人非法收购走私入境的一类濒危野生动物马来亚穿山甲死体747公斤，一审获刑八年。</t>
+  </si>
+  <si>
+    <t>三部门拟授予表彰防疫一线优秀女性 全国妇联、国家卫生健康委、中央军委政治工作部联合下发通知，拟表彰在疫情防控一线救治、护理、科研攻关等方面成绩突出的女医务人员，拟授予全国三八红旗手500名、全国三八红旗集体100个。同时，全国妇联还将对在疫情防控中特别是社区联防联控、群防群治中涌现出的优秀女性和集体进行表彰。</t>
+  </si>
+  <si>
+    <t>全国已建28.6万个女职工哺乳室 今天（3月8日），记者从中华全国总工会了解到，全国已建立女职工休息哺乳室达28.6万个，覆盖哺乳期女职工1857.1万人。目前，全国已有27个省、市、自治区总工会设立了专项资金，推进女职工哺乳室建设。</t>
+  </si>
+  <si>
+    <t>一批重大重点项目在江西南昌集中开工 一批重大重点项目日前在江西南昌集中开工，首批项目129个，总投资超过1000亿元，主要涉及工业、服务业、农业、民生等多个领域。目前，南昌规模以上工业企业全部复产，产能恢复率达到50%。</t>
+  </si>
+  <si>
+    <t>山花烂漫 春意正浓 草木复苏、春回大地。这几天，贵州六枝木岗镇万亩油菜花全面进入盛花期，从空中俯瞰，宛如一幅色彩斑斓的油画。而浙江仙居的油菜花在粉墙黛瓦的映衬下，独具江南特色。江苏淮安洪泽湖全长1公里的古堰梅堤，朵朵梅花依次绽放，传递着浓浓的春意。</t>
+  </si>
+  <si>
+    <t>国务院安委办部署加强复工复产 安全生产工作日前，国务院安委会办公室、应急管理部印发通知，要求在支持推进企业复工复产的同时，加强近期典型事故剖析和数据研判，摸清安全风险隐患问题；深刻吸取福建泉州“3·7”坍塌事故教训，立即开展隔离观察场所建筑安全风险隐患排查。</t>
+  </si>
+  <si>
+    <t>一批高质量项目在广州南沙区签约动工 今天（3月9日），59个高质量项目在广州南沙区签约动工。项目涵盖基础研究、科技创新、现代医疗及重大民生等领域，总投资超过1600亿元。其中百亿元的项目多达12个。广州南沙作为广东重点打造的粤港澳全面合作示范区，这次与港澳合作项目就有24个，投资额达828.16亿元。</t>
+  </si>
+  <si>
+    <t>海关今晨查获走私穿山甲鳞片820公斤 在海关总署的统一指挥下，南宁、合肥两地海关今天（3月9日）凌晨联合公安部门，打掉了一个偷运入境走私穿山甲鳞片犯罪团伙，抓获犯罪嫌疑人9名，现场查获走私穿山甲鳞片820公斤。青海出台措施 严格管理保护野生动植物青海省相继出台强化野生动物和野生植物保护的“双十条”措施，从加强野外栖息地保护、驯养繁殖监管、疫源疫病监测方面进一步严格管理保护野生动植物。青海是全球高海拔地区生物多样性最集中的地区之一，目前有野生动物超过600种。</t>
+  </si>
+  <si>
+    <t>海关总署：减免滞报金和滞纳金 海关总署推出新措施，对于疫情发生前到岸因疫情而无法及时报关的进口货物，经企业申请可减免滞报金；因疫情影响无法按期缴纳税款的企业，经申请海关可批准最长3个月的延期缴税计划并减免滞纳金。</t>
+  </si>
+  <si>
+    <t>我国完成首次火星探测任务无线联试 今天（3月10日），我国完成首次火星探测任务无线联试，此次联试是北京航天飞行控制中心与航天器正样的唯一一次地面联合演练，充分验证了探测器与地面系统的接口匹配性和一致性，对各类方案、技术状态、软硬件系统进行了全面测试。</t>
+  </si>
+  <si>
+    <t>“探索一号”启航 执行今年首次科考任务今天（3月10日）上午，中科院“探索一号”船搭载“深海勇士”号载人潜水器和60名科考队员在三亚崖州湾科技城南山港码头启航，开始执行为期20天的科考航次任务。这也是三亚南山港首次为科考船启航提供支持保障服务。</t>
+  </si>
+  <si>
+    <t>大藤峡水利枢纽工程今天开始下闸蓄水 今天（3月10日）上午，位于广西桂平的大藤峡水利枢纽工程开始正式下闸蓄水。2014年动工的大藤峡水利枢纽工程是国家172项节水供水重大水利工程的标志性工程。蓄水达到52米高程后，将提高粤港澳大湾区城乡生活生产和生态供水能力。</t>
+  </si>
+  <si>
+    <t>江西635个重大项目今天开工 今天（3月10日），江西全省共有635个重大项目集中开工。此次开工项目均为各地三月份新开工的亿元以上重大项目，项目总投资3715亿元，涉及基础设施、产业升级、公共服务和生态环保四大类。</t>
+  </si>
+  <si>
+    <t>青海首批高中 中职学校 昨起开学昨天（3月9日）起，青海省的普通高中、中等职业学校陆续开学。在青海海东、玉树等地，第一批开学的中学生已经返回校园。根据青海省教育部门的安排，初中原则上在3月16日至20日陆续开学。</t>
+  </si>
+  <si>
+    <t>税务总局：企业复工复产出现积极变化 国家税务总局公布的最新增值税发票数据显示，3月首周，大型、中型企业开票户数分别相当于去年同期的77.4%和69.9%，环比上周分别提升5.3和12.4个百分点，反映大中型企业复工复产成效明显。从行业看，农副食品加工、食品制造业日均开票金额已达到去年同期的90%以上。</t>
+  </si>
+  <si>
+    <t>革命老区2020年脱贫攻坚重点任务明确 记者从国家发展改革委获悉，革命老区脱贫攻坚和振兴发展2020年年度重点任务已经明确，将以赣南等原中央苏区、陕甘宁、大别山、左右江、川陕等革命老区为重点，深入开展产业、就业、消费、金融等方面扶贫，加快实施铁路、公路、水运、能源等领域重大基础设施项目。</t>
+  </si>
+  <si>
+    <t>甘肃兰州完成筏板超大体积混凝土浇筑 日前，甘肃兰州中央商务区建设，一次性完成20210立方米筏板超大体积混凝土浇筑。筏板位于地基的底层，其一次性浇筑可以更好抵抗建筑物不均匀沉降。这为我国在特殊时期、不良地质条件下，修建大型城市综合体提供了宝贵经验。</t>
+  </si>
+  <si>
+    <t>黄河开河长度过半 截至今天（3月11日）上午8时，黄河内蒙古河段三湖河口水文断面平稳开河，开河日期较常年偏早11天。目前黄河累计解冻324千米，开河长度已经过半，预计本月中旬将迎来全线开河。</t>
+  </si>
+  <si>
+    <t>国务院成立泉州欣佳酒店“3·7”坍塌事故调查组 记者从应急管理部获悉，3月7日19时5分许，福建省泉州市鲤城区欣佳酒店发生楼体坍塌事故，造成29人死亡、42人受伤。依据《生产安全事故报告和调查处理条例》有关规定，国务院决定成立福建省泉州市欣佳酒店“3·7”坍塌事故调查组并开展调查工作。</t>
+  </si>
+  <si>
+    <t>商务部：19省市重点外贸企业复工率已近100% 记者今天（3月12日）从商务部获悉，目前，山东、安徽、辽宁等8省市的外贸企业复工率超过80%，浙江、江苏、上海等19省市重点外贸企业复工率已达到或接近100%。</t>
+  </si>
+  <si>
+    <t>市场监管总局公布哄抬熔喷布价格违法行为典型案件 市场监管总局近日公布一批查处的哄抬口罩生产核心原料熔喷布价格的典型案件。针对东莞市大成过滤材料有限公司、自然人饶某、深圳市缤纷时尚运动用品有限公司、深圳市恒艺数码印花有限公司、东莞市得米纳米科技有限公司涉嫌构成哄抬价格的违法行为，市场监管总局已依法进行立案调查。</t>
+  </si>
+  <si>
+    <t>多地确定2020年春季学期开学计划 近日，多地发布2020年春季学期计划，贵州高三和初三年级将于3月16日正式开学；山西高三年级按照3月25日做开学准备；云南高三和初三年级将在3月23日开学，中小学其他年级3月30日开学。</t>
+  </si>
+  <si>
+    <t>新疆：交通及公共服务场所陆续恢复运行和营业 从3月8日开始，新疆各地市州城市公共交通及疆内铁路、客运、航空陆续恢复运行。目前，酒店、商场、超市、餐饮、理发、农贸市场等各类公共服务场所也已恢复营业。</t>
+  </si>
+  <si>
+    <t>270台车无偿支援抗疫工作者 为解决抗疫一线工作者出行困难，北京现代今天（3月12日）无偿提供270台轿车，交付给武汉抗疫一线工作者使用，并在疫情期间，免费提供车辆维修、保养、救援等保障。</t>
+  </si>
+  <si>
+    <t>央行定向降准 释放资金5500亿元中国人民银行决定于2020年3月16日实施普惠金融定向降准，对达到考核标准的银行定向降准0.5至1个百分点。在此之外，对符合条件的股份制商业银行再额外定向降准1个百分点，支持发放普惠金融领域贷款。以上定向降准共释放长期资金5500亿元。</t>
+  </si>
+  <si>
+    <t>证监会取消证券公司外资股比限制 证监会今天（3月13日）宣布，自2020年4月1日起取消证券公司外资股比限制，符合条件的境外投资者可根据法律法规、证监会有关规定和相关服务指南的要求，依法提交设立证券公司或变更公司实际控制人的申请。进一步便利境内机构跨境融资措施出台央行、外汇局日前发布，将全口径跨境融资宏观审慎调节参数由1上调至1.25，提高跨境融资风险加权余额上限。这将有助于便利境内机构特别是中小企业、民营企业利用国际国内两种资源、两个市场，多渠道筹集资金，推动企业复工复产。</t>
+  </si>
+  <si>
+    <t>今年央企将投入扶贫资金超33亿元 记者今天（3月13日）从国务院国资委获悉，各中央企业今年将投入和引进无偿帮扶资金33.57亿元，培训基层干部和技术人员9.44万名，购买和帮助销售贫困地区农产品16.59亿元。线上招聘为退役军人提供就业信息退役军人部要求，各级退役军人事务部门要及时发布开复工、就业岗位等信息，丰富网上就业服务项目。截至目前，各地已组织举办退役军人线上招聘2572次，涉及企业10万余家。</t>
+  </si>
+  <si>
+    <t>第三届进博会首批143家展商名单公布 第三届进博会首批143家参展企业名单12日对外公布。其中世界500强占比近四成，涉及服务贸易、汽车、装备等多个行业。截至目前，第三届进博会签约报名参展的企业超过1000家。</t>
+  </si>
+  <si>
+    <t>联通电信联合采购25万5G基站主设备 中国联通与中国电信日前宣布，将联合采购不少于25万个5G基站主设备，力争在今年三季度提前完成全年5G建设计划。目前联通与电信已在全国31个省开通5G共建共享，50多个城市的5G正式商用。</t>
+  </si>
+  <si>
+    <t>广东连破3起破坏野生动物资源案 近日，在广东省公安厅统一部署下，多部门联合行动，连破3起破坏野生动物资源的违法犯罪案件，查获太阳鹦鹉、非洲灰鹦鹉共100只，还有国家一级保护动物辐纹陆龟等珍贵濒危野生动物。</t>
+  </si>
+  <si>
+    <t>银保监会：加大“三区三州”金融投入银保监会近日要求加大对“三区三州”135个深度贫困县的金融支持。大中型银行在“三区三州”深度贫困县的分支机构要将70%以上的新增可贷资金用于当地，进一步提高深度贫困县不良贷款容忍度，对符合贷款条件、具备一定还款能力的建档立卡贫困户做到应贷尽贷。</t>
+  </si>
+  <si>
+    <t>超3000项电网工程全面复工复产 国家电网发布的最新数据显示，截至目前，除湖北省外，所有在建3205项输变电工程、33项抽水蓄能工程已经全部复工复产。国家电网今年全年的电网投资将超过4000亿元，可带动社会投资8000亿元以上，整体规模将超过1.2万亿元。</t>
+  </si>
+  <si>
+    <t>多地中欧班列开行数量逆势增长 3月份以来，由湖南长沙、株洲、怀化始发的中欧班列，班次数量比上月增长超过30%。中欧班列中线出入境口岸——二连浩特铁路口岸接运出入境中欧班列同比增长20.4%。福建厦门始发的中欧班列预计今年3月的开行数量和2019年月平均量相比增长50％。</t>
+  </si>
+  <si>
+    <t>“国聘行动”累计提供招聘职位超10万由中央广播电视总台“央视频”携手国投集团，与国务院国资委共同推出的大型线上招聘活动“国聘行动”，自3月2日启动以来，已面向社会提供了超10万个招聘职位，累计入驻企业近2500家。目前，有意向提供职位的企业数量还在持续增加，求职者可下载“央视频”了解最新职位信息。</t>
+  </si>
+  <si>
+    <t>全国铁路建设项目复工率达93% 目前，全国已有108个铁路重点工程项目复工，项目复工率达93%，累计进场施工和技术管理等人员45万人。银川至西安高铁、太原至焦作高铁、京沈高铁北京和河北段等今年计划开通项目100%复工，复工率达100%。</t>
+  </si>
+  <si>
+    <t>永定河联合生态补水 今天全面启动今天（3月15日）上午，黄河万家寨水利枢纽、山西册田、河北洋河等多座水库陆续开闸，联合向永定河下游生态补水。截至2019年，通过定期补水，永定河300天以上不断流的通水河段达513公里，北京山峡段40年来首次实现了不断流。</t>
+  </si>
+  <si>
+    <t>拉萨贡嘎国际机场航站区改扩建工程复工今天（3月15日），拉萨贡嘎国际机场航站区改扩建工程正式复工。工程包括新建8.8万平方米T3航站楼、21个机位的站坪、配套建设等设施。工程建成后，将满足每年900万人次出行。</t>
+  </si>
+  <si>
+    <t>“金龙-2020”中柬联合训练今天开训 “金龙-2020”中柬两军联合训练今天（3月15日）在柬埔寨贡布省王家军某训练场开训。在为期半个月的训练中，双方800多名官兵混编同训，展开轻武器射击、机降和反恐战术等课目的训练，提升共同应对恐怖主义安全威胁的能力。</t>
+  </si>
+  <si>
+    <t>全国重大水利工程复工复产超80% 截止到今天（3月16日），全国110项在建重大水利工程已有93项复工，复工率达84.5%，返岗人员达80%。除东北西北地区部分工程受气候条件限制外，3月底前全部在建项目复工可达100项以上。</t>
+  </si>
+  <si>
+    <t>财政部、交通运输部：阶段性减免港口建设费 财政部、交通运输部今天（3月16日）发布公告，自2020年3月1日零时起至2020年6月30日24时止，免征出口国外和国外进口货物的港口建设费；减半征收船舶油污损害赔偿基金。铁路部门开行300列务工专列保障复工复产全国铁路部门科学有序做好务工人员返程运输，自2月16日首趟务工专列开行以来，截至3月15日，全国铁路已累计开行务工专列300列，包车厢1250辆（次），运送旅客已达33.2万。近期计划再安排务工专列13列，包车厢35辆（次）。</t>
+  </si>
+  <si>
+    <t>鼓励民营企业加快恢复并扩大生猪生产 国家发展改革委、农业农村部印发《关于支持民营企业发展生猪生产及相关产业的实施意见》，针对用地、环保、信贷、保险等突出问题加大扶持力度，鼓励民营企业立足当前，加快恢复并扩大生猪生产。</t>
+  </si>
+  <si>
+    <t>中欧班列“长安号”开行量突破450列 截至目前，2020年中欧班列“长安号”开行量已突破450列，是去年同期2倍以上，运送货物总重37万余吨，班列开行量、重箱率、货运量等核心指标位居全国前列。</t>
+  </si>
+  <si>
+    <t>电视剧《一个都不能少》今晚开播电视剧《一个都不能少》 今晚（3月16日）起在央视综合频道黄金档开播。该剧展现了在脱贫攻坚奔小康的道路上，西部农村面貌和农民精神风貌发生的巨大变化，反映了新时代脱贫攻坚第一线所取得的显著成效和典型经验。</t>
+  </si>
+  <si>
+    <t>今天24点汽柴油价格大幅下调 国家发展改革委消息，受国际油价大幅下跌影响，自3月17日24时起，国内汽柴油价格每吨分别下调1015元、975元。全国平均来看，92号汽油每升下调0.80元，0号柴油每升下调0.83元。</t>
+  </si>
+  <si>
+    <t>长江口北支航道首次通航超大型油轮 昨天（3月16日），一艘30万吨超大型油轮“猎鹰”顺利进靠江苏南通启东码头，轮船长333米，宽58米，型深28.55米，是长江入海口北支航道通航以来接待的最大吨位船舶。该油轮还将在两年内改造升级成大型浮式生产储卸油平台。</t>
+  </si>
+  <si>
+    <t>贵州出台促进高校毕业生就业创业措施 今天（3月17日），贵州省出台《促进2020年高校毕业生就业创业十条措施》，包括招聘特岗教师、开发公益性岗位等，通过切实有效的举措，增加高校毕业生就业岗位，鼓励高校毕业生就业创业。</t>
+  </si>
+  <si>
+    <t>北方快速回暖 多地气温将超20℃今明两天（3月17-18日），我国北方地区暖意升级，东北、华北、黄淮以及西北部分地区，气温超过20℃，刷新今年以来的气温新高。不过，早晨和夜间的气温仍然较低，昼夜温差加大，提醒大家早晚出行时注意保暖。</t>
+  </si>
+  <si>
+    <t>建档立卡贫困户危房改造 6月底竣工住房城乡建设部和国务院扶贫办联合发布通知，要求各地确保所有建档立卡贫困户危房改造于2020年6月底前全部竣工。要分区分级推进农村危房改造工程复工，持续深入抓好危房改造质量不高、补助资金拨付缓慢等问题整改工作。</t>
+  </si>
+  <si>
+    <t>我国启动东北黑土地保护性耕作行动计划 农业农村部今天（3月18日）宣布，从今年开始，国家实施东北黑土地保护性耕作行动计划，力争用5年时间，使得70%左右的东北适宜区域黑土地得到有效保护。</t>
+  </si>
+  <si>
+    <t>市场监管总局：商场超市基本开门复业 国家市场监督管理总局今天（3月18日）公布，自1月29日启动保价格、保质量、保供应“三保”行动以来，截至3月17日，参与企业达15535家。目前，民生用品企业复产率达到70%以上，商场、超市、连锁便利店等基本开门复业。</t>
+  </si>
+  <si>
+    <t>福建：265个重点项目集中开工建设 今天（3月18日），福建省265个重点项目在福州、厦门、漳州等地集中开工建设。其中包括基础设施项目74个、产业项目147个、社会事业项目44个，年度计划投资457亿元。</t>
+  </si>
+  <si>
+    <t>成渝地区双城经济圈建设加速 四川、重庆两地出台方案，从交通运输、生态保护、公共服务等几个方面开展合作共建，加速推动成渝地区双城经济圈建设，力争将成渝地区建设成为具有全国影响力的重要经济中心、科技创新中心。</t>
+  </si>
+  <si>
+    <t>海南三亚17个项目开工 总投资161亿元今天（3月18日），海南西环铁路三亚至乐东段公交化旅游化改造工程、南繁生物实验室等17个重点项目在三亚开工建设，总投资约161亿元。这批重点项目将进一步完善三亚及周边地区的基础设施，提升优化当地营商环境。</t>
+  </si>
+  <si>
+    <t>浙江抗疫医疗专家组启程前往意大利 由浙江省组建的抗疫医疗专家组今天（3月18日）从上海浦东机场出发，前往意大利，协助应对疫情。专家组13人主要来自重症医学科、呼吸内科、感染病科、中医内科等专业。同机还携带一批由浙江等地捐赠给意大利急需的医疗救治物品，包括呼吸机、监护仪、检测试剂等，共计17.3吨。</t>
+  </si>
+  <si>
+    <t>北方多地气温升至20℃以上今天（3月18日），我国北方地区气温继续升高，京津冀、山东、河南等地最高气温都升至20℃以上，天津、石家庄、济南、郑州最高气温都达到26至27℃，比常年同期水平偏高10℃以上。</t>
+  </si>
+  <si>
+    <t>黄河内蒙古冰封河段全线开河截止到今天（3月18日）上午，黄河内蒙古封冻河段全线开通。本年度黄河内蒙古河段首封时间较常年晚3天，全线开河比去年早5天。从开始流凌、封河到开河共计121天。开河期间，没有发生凌汛灾害。</t>
+  </si>
+  <si>
+    <t>人力资源社会保障部：多措并举助力复工复产 人力资源社会保障部今天（3月19日）介绍，截至目前，各地通过专车专列包机等方式运送农民工超过410万人。2月份，全国共减免社会保险费累计1239亿元，全国共有128万户企业享受到失业保险稳岗返还186亿元，惠及职工4230万人。</t>
+  </si>
+  <si>
+    <t>海关总署：50条任务清单促通关便利化 海关总署近日制定50条任务清单，统筹做好口岸疫情防控和通关便利化，全力支持企业复工复产。自1月24日以来，海关对受疫情影响的进口货物累计减免滞报金3366万元，延长汇总征税报关单电子支付时限，惠及企业1569家，涉及税款164亿元。</t>
+  </si>
+  <si>
+    <t>国际海事组织推荐我国编制船舶船员疫情防控操作指南 3月18日，国际海事组织正式向174个成员国推荐由中国海事局编制的《船舶船员新冠肺炎疫情防控操作指南》。《指南》结合广东海事局和航运公司关于船舶疫情防控的实践经验制定，包括了船舶落实防控措施、加强船员个人防护等七个方面。</t>
+  </si>
+  <si>
+    <t>医保电子凭证实现全国覆盖 由国家医保信息平台统一激活的医保电子凭证已经实现全国覆盖，参保人可以在国家医保APP或者通过支付宝等官方授权的第三方渠道领取医保电子凭证，通过手机扫码看病买药。疫情期间，慢性病患者还可以使用医保电子凭证，实现网上“无接触式看病”。</t>
+  </si>
+  <si>
+    <t>我国扩展外债便利化试点范围国家外汇管理局 今天（3月19日）宣布，将我国外债便利化试点范围，在此前北京市中关村国家自主创新示范区的基础上，继续扩展至上海（自由贸易试验区）、湖北（自由贸易试验区及武汉东湖新技术开发区）、广东及深圳（粤港澳大湾区）等省、市。这将进一步便利中小微高新技术企业多渠道筹集资金，降低企业财务成本。</t>
+  </si>
+  <si>
+    <t>《战“疫”故事》第一季今晚播出最后一期由中央广播电视总台制作的《战“疫”故事》第一季，今晚（3月19日）8时25分在央视综艺频道播出最后一期。第一季共12期节目，以讲述和朗读的形式，聚焦战“疫”中的医护工作者、社区工作者等典型人物。</t>
+  </si>
+  <si>
+    <t>工业和信息化部发布通知 推动工业互联网加快发展 工业和信息化部今天（3月20日）发布推动工业互联网加快发展的通知。通知明确：推动基础电信企业建设覆盖全国的高质量外网，利用5G改造工业互联网内网；发展50家工业互联网重点平台，推动重点平台工业设备连接数达到80万台、工业APP数量达到2500个。</t>
+  </si>
+  <si>
+    <t>2月境外投资者净增持境内债券140亿美元 国家外汇管理局新闻发言人今天（3月20日）表示：2月份，银行结售汇顺差142亿美元，企业、个人等非银行部门涉外收支顺差96亿美元。今年1至2月，境外投资者净增持境内股票和债券合计205亿美元，月均与2019年水平基本相当，其中2月净增持债券140亿美元，增长较快。数据显示当前境外投资者投资意愿保持稳定，我国在吸引外资流入方面具有较明显的优势。</t>
+  </si>
+  <si>
+    <t>新开发银行70亿元人民币紧急贷款援助中国 由金砖五国共同发起成立的国际金融机构——新开发银行董事会以快速通道方式批准向我国提供总额为70亿元人民币的紧急援助贷款，用于支持湖北省、广东省和河南省抗击疫情有关的公共卫生应急支出。这是新开发银行批准的第一个用于支持成员国抗击疫情的紧急援助贷款，也是国际金融组织为我国抗击疫情迄今所提供的金额最大的主权贷款。</t>
+  </si>
+  <si>
+    <t>新一批金融开放项目在沪开业 今天（3月20日），摩根大通证券（中国）有限公司等5家外资金融机构，在上海举行线上开业仪式。这是上海持续推进新一轮高水平金融对外开放的重要举措。</t>
+  </si>
+  <si>
+    <t>天津港至越南胡志明港集装箱班轮新航线开通 昨天（3月19日），天津港至越南胡志明港集装箱班轮新航线开通。有效解决了天津港与胡志明港间直航运力不足的问题，可为企业节省2天运输时间，减少5%的物流综合成本。目前，天津港已拥有“一带一路”集装箱航线46条。</t>
+  </si>
+  <si>
+    <t>百万只口罩将运往意大利 今天（3月20日），中国医药向意大利紧急出口的100万只欧标医用防护口罩从广东运抵北京，明天（21日）运往意大利。双方还签订了首批800万只欧标医用防护口罩供货协议，将于近日陆续发往意大利。</t>
+  </si>
+  <si>
+    <t>前两个月进口物流需求实现逆势增长 中国物流与采购联合会公布，1-2月份进口物流量同比增长5.5%，实现逆势增长。从货类看，铁矿砂、原油、煤和天然气等大宗商品进口量分别同比增长1.5%、5.2%、33.1%和2.8%；大豆进口量同比增长14.2%；猪肉进口量同比增长1.6倍。</t>
+  </si>
+  <si>
+    <t>2019年全国技术合同成交首破2万亿元 科技部公布，2019年我国共签订技术合同484077项，成交金额22398.4亿元，比上年增长26.6%，首次突破两万亿元。其中技术服务合同成交额12418.1亿元，技术转让合同成交额涨幅最大，同比增长36%。</t>
+  </si>
+  <si>
+    <t>全国首趟搭载出口防疫物资 中欧班列在义乌启程今天（3月21日），全国首趟搭载出口欧洲防疫物资的中欧班列从义乌启程，预计17天后抵达西班牙马德里。此趟中欧班列装载100个标准集装箱，其中防疫物资主要为医用口罩、防护服等，用于支援当地疫情防控。</t>
+  </si>
+  <si>
+    <t>广东茂名烷烃资源综合利用项目开工建设 今天（3月21日），总投资400亿元的茂名烷烃资源综合利用项目开工建设。项目将分三期建设，以发展丙烷-丙烯-聚丙烯产业链为主线，打造世界级聚丙烯生产基地。</t>
+  </si>
+  <si>
+    <t>上海：“文创保”首期规模10亿 服务中小微文创企业为缓解中小微文创企业融资难、融资贵，上海推出“文创保”专项产品，首期规模10亿。上年度营业收入300万元以上的本市注册文创企业都能申请，贷款审批时间不超过15天。</t>
+  </si>
+  <si>
+    <t>各地博物馆陆续恢复开放国家文物局消息，截至目前全国已有19个省区市的近200家博物馆恢复开放，通过采取网上实名预约、分区域开放、语音讲解和数字导览等措施，在保障观众安全的同时，丰富公众的文化生活。</t>
+  </si>
+  <si>
+    <t>旅游景点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游景点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第36届中国·哈尔滨国际冰雪节开幕今天（1月5日），第36届中国·哈尔滨国际冰雪节在哈尔滨冰雪大世界开幕，本届冰雪节以采冰节、冰雪大世界、兆麟公园冰灯游园会等为精品，同时举办冰雪旅游、冰雪文化、冰雪体育等400余项活动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨国际冰雪节</t>
+  </si>
+  <si>
     <t>气温回暖 南方多地进入赏花期随着气温升高，近日，南方多地进入赏花期，江西婺源的油菜花与徽派建筑相映成趣，宛若画卷；江苏南京梅花山等地上万株梅花竞相绽放争奇斗艳；广东云浮的木棉花热烈奔放，吸引不少市民驻足留念，同时各地还通过测量体温、限制客流等方式，做好景区疫情防控，倡导游客错峰赏花</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1月我国对外承包工程新签合同额同比增长74.2%商务部今天（2月24日）发布的数据显示，1月份，我国对外承包工程新签合同额1082.5亿元人民币，同比增长74.2%，其中，上亿美元项目31个，比上年同期增加18个，主要集中在交通运输建设、电力工程建设和石油化工等领域</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>C919大型客机106架机转场东营展开试飞昨天（2月23日），C919客机第六架试飞飞机——106架机从上海浦东机场转场至山东东营胜利机场，将开展验证客舱照明、外部噪声等相关科目的试飞任务，它的试飞意味着C919大型客机所有试飞飞机均投入试飞工作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>人民银行下调支农支小再贷款利率至2.5%中国人民银行今天（2月26日）表示，在前期已经设立3000亿元疫情防控专项再贷款的基础上，增加再贷款再贴现专用额度5000亿元，同时，下调支农、支小再贷款利率0.25个百分点至2.5%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>东北地区中晚稻最低收购价预案执行时间延长国家粮食和物资储备局今天（2月26日）下发通知，将东北地区2019年中晚稻最低收购价预案执行截止日期从2月29日延长至3月31日，通知要求各地严格落实粮食安全省长责任制，统筹抓好科学防控和秋粮收购工作，坚决守住农民“种粮卖得出”的底线</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我国医用N95口罩日产能突破100万只记者今天（2月26日）从国家发展改革委了解到，截至2月24日，全国医用N95口罩日产能达到107万只，是2月1日的4.7倍，与此同时，国家统一调度，全力保障湖北等重点地区需求，近期每天调度量都在15万只以上</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过对在轨卫星资源的科学调度，基本实现了全国陆域2米卫星数据季度覆盖，有效覆盖比达90%以上</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三届进博会首度举行网上签约今天（2月26日），中国国际进口博览会首度举行网上签约会，包括法国米其林集团、日本武田药品工业株式会社在内的四家企业完成了“云签约”，截至目前，进博会签约展览面积已超过规划面积的50%</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北中欧中亚班列今天恢复常态化开行今天（2月26日），河北石家庄开往乌兹别克斯坦首都塔什干的中亚班列的开行，标志着石家庄中欧、中亚班列全面恢复常态化开行，这趟列车一共装载了42个集装箱，货品包括汽车配件、机械设备等</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>首趟进境水果班列从越南直达广西首趟进境水果班列昨天（2月25日）从越南同登直达广西凭祥，这是国铁凭祥口岸物流中心进境水果直通班列的首次开行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>博斯腾湖冬季生态输水达上亿立方米博斯腾湖为新疆孔雀河中下游荒漠植被地区生态输水一个月以来输水量超过上亿立方米，灌溉覆盖30万亩荒漠植被，孔雀河中下游流域遍布着大量野生胡杨林和荒漠植物，是塔里木河下游“绿色走廊”的重要组成部分</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家移民管理局出台措施恢复出入境秩序今天（2月27日），国家移民管理局出台十项措施有序恢复出入境秩序，包括分区分级有序开放公安出入境窗口服务；为参与疫情防控的中外人员提供出入境便利；严把国门，强化出入境窗口和通关现场防疫抗疫措施；健全口岸联防联控机制等内容</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>疫情期间全国医疗废物废水有序处理生态环境部通报，截至2月24日，全国医疗废物日处置能力为5830.8吨，湖北省及武汉市处置能力大幅提高，目前，全国99.2%的定点医院建有污水处理设施，剩余21家定点医院采取应急措施处理污水，这些处理设施正常运行并严格落实消毒措施</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二三航空成立 首批接收35架国产飞机东航旗下一二三航空26号正式成立，在市场化运营国产飞机上先行一步，一二三航空首批接收35架ARJ21-700飞机，计划2020年至2024年完成交付，今年9月将有3架投入运营，未来，一二三航空还将作为首发客户分批引进20架C919大型国产飞机，投入干线航班运营，到2030年实现国产飞机的规模化运营</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019中国科学十大进展发布今天（2月27日），科技部高技术研究发展中心发布2019年度中国科学十大进展，探测到月幔物质出露的初步证据、构架出面向人工通用智能的异构芯片、基于材料基因工程研制出高温块体金属玻璃、青藏高原发现丹尼索瓦人等10项。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我国科学家首次揭示月球背面浅层结构今天（2月27日），国际学术期刊《科学·进展》发表了我国在月球深空探测领域取得的重大发现，科研团队利用嫦娥四号测月雷达，首次揭示了月球背面着陆区域40米深度内的地质分层结构，对了解月球撞击、火山活动及月球背面的地质演化具有重要意义</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>“远望7号”首赴大西洋执行卫星海上测控今天（2月27日），我国最新一代航天远洋测量船“远望7号”首次奔赴大西洋，执行卫星海上测控任务，此次任务航程远、航线新，“远望7号”认真开展各项技术工作，确保顺利航行</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界极危鸟类青头潜鸭现身云南保山近日，云南保山青华海国家湿地公园的工作人员监测到一只雄性青头潜鸭，青头潜鸭属于世界极危鸟类，全球不超过1000只，2019年1月，青头潜鸭曾在保山大海子水库首次被发现，</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通运输部：分区分级恢复道路运输交通运输部日前下发通知，要求疫情各地落实分区分级管控要求，有序恢复道路客运、城市公交和出租车等城乡道路运输服务。除湖北省和北京市以外，其他暂未恢复省际道路客运服务的地区不得阻碍其他非高风险的县市区发出的客运车辆进入或途经本地。</t>
-  </si>
-  <si>
-    <t>我国将用五年完成重点区域自然资源确权自然资源部表示，我国将用5年左右基本完成全国重点区域自然资源统一确权登记。今年，将启动珠江流域西江干流（中下游）、淮河干流（中游）、根河等5个重点国有林区和部分海域、无居民海岛自然资源确权登记工作。</t>
-  </si>
-  <si>
-    <t>今起铁路部门优化电子客票退票流程自2月28日起，全国铁路进一步优化电子客票退票手续。对于已领取报销凭证的电子客票或使用现金购买的电子客票，旅客可先行在网上办理退票，可在180天内到任何一个车站完成退款等相关手续。</t>
-  </si>
-  <si>
-    <t>杭州亚运会重点工程东苕溪大桥合龙杭州亚运会重点配套工程杭州绕城西复线东苕溪大桥今天（2月28日）合龙，该工程可让杭州亚运会主场馆与湖州德清的排球馆以及各个分场馆实现一小时交通圈。</t>
-  </si>
-  <si>
-    <t>目前，浙江交通集团15个高速公路、铁路项目已经复工复产。西藏湘河水利枢纽截流 主体工程施工国家重点水利工程、总投资27亿多元的西藏湘河水利枢纽及配套灌区工程今天（2月28日）截流，开始主体工程施工。建成后，水库总库容量可达1.134亿立方米，年发电量可达1.38亿千瓦时，预计2022年12月完工。</t>
-  </si>
-  <si>
-    <t>中越米轨国际联运实现“双突破”从2月19日恢复运营以来，中越米轨国际联运累计完成货运运输10.6万吨，同比增加1.5万吨。中越米轨国际联运采用双机牵引，每天开行2对国际货物联运列车，取得了列车单趟总重突破1000吨和今年以来运输总量突破10万吨的“双突破”。</t>
-  </si>
-  <si>
-    <t>东部部分地区迎来雨雪天气今天（2月28日），山东自西向东迎来一次大范围降雪天气，部分高速公路临时关闭。吉林部分地区、河北邯郸迎来降雪。山西临汾抓住雨雪天气有利时机，进行联合增雨雪作业，为冬小麦返青增加土壤墒情。</t>
-  </si>
-  <si>
-    <t>安徽九华山风景区雨后间隙频频出现曼妙壮阔的春日云海景观，宛如一幅幅泼墨山水画卷。</t>
-  </si>
-  <si>
-    <t>内蒙古多地迎来上万只迁徙候鸟随着气温不断回升，这几天，内蒙古巴彦淖尔市的乌兰布和沙漠湿地迎来数以万计的秋沙鸭、赤嘴潜鸭等迁徙候鸟，给沉寂了一个冬季的沙漠湿地带来了生机。</t>
-  </si>
-  <si>
-    <t>教育部：中小学高校错时错峰开学 教育部日前通知，要求做好中小学（含幼儿园、中等职业学校）错区域、错层次、错时开学方案。原则上高三年级实行省域同步、初三年级同一市域同步。高校开学准备工作要落实分区分级精准防控策略，坚持属地原则，错峰返校、错峰开学。</t>
-  </si>
-  <si>
-    <t>公安部：多项交管服务新措施明起实施 从3月1日起，公安部将在部分地区试点实行接受教育减免交通违法记分制度、机动车检验合格标志采用电子化等新措施，与此同时，租赁车交通违法处理简捷快办等多项改革措施也将于今年3月在全国全面实施。</t>
-  </si>
-  <si>
-    <t>临时性调降小规模纳税人增值税税率 财政部、税务总局最新公告，自2020年3月1日至5月31日，对湖北省增值税小规模纳税人，适用3%征收率的应税销售收入，免征增值税；适用3%预征率的预缴增值税项目暂停预缴增值税。其他省、自治区、直辖市的增值税小规模纳税人，适用3%同档税率的均按1%征收。</t>
-  </si>
-  <si>
-    <t>中国国债正式纳入摩根大通债券指数 昨天（2月28日）起，中国国债正式纳入摩根大通全球新兴市场政府债券指数。中国人民银行表示，这充分反映了国际投资者对中国经济长期健康发展的信心。截至目前，中国债券市场存量规模达100.4万亿元人民币。其中，国际投资者持债规模同比增长22%。</t>
-  </si>
-  <si>
-    <t>农发行优惠配套政策帮助企业复工复产 中国农业发展银行今天（2月29日）推出优惠配套政策，服务疫情防控和企业有序复工复产。措施主要包括1200亿元专项信贷额度支持中小微企业复工复产；单列生猪全产业链发展贷款计划100亿元等。截至目前，已审批相关贷款554.58亿元。</t>
-  </si>
-  <si>
-    <t>国铁集团全力保障运输春耕农资 连日来，国铁集团组织各铁路部门安排运力，优先保障化肥主产地外运需求，减免运输及仓储等相关费用。今年以来，国家铁路化肥及农药运量完成875万吨，同比增加96万吨，增长12.3%。</t>
-  </si>
-  <si>
-    <t>国家邮政局：邮政业完成八成复工复产任务截至2月28日，全国邮政行业复工人员达246万人，复工率达90.2%，快件日揽收量和投递量分别达到1.62亿件和1.6亿件，复产率分别达到81%和80%。邮政企业和快递企业承运、寄递疫情防控物资累计4.05万吨。</t>
-  </si>
-  <si>
-    <t>国家林草局：坚决取缔食用野生动物市场和交易国家林草局近日发出通知，要求坚决取缔非法野生动物市场，严厉打击非法野生动物交易，全面整顿野生动物人工繁育和经营利用从业机构，停止一切以食用为目的的经营利用陆生野生动物活动。</t>
-  </si>
-  <si>
-    <t>海阳核电1号机组首次大修并网成功昨晚（2月28日），我国三代核电自主化依托项目海阳核电1号机组完成首次换料大修，一次并网成功。此次大修完成了5505项检修及试验项目，历时45天，创造了我国核电机组首次换料大修最短工期纪录。</t>
-  </si>
-  <si>
-    <t>成都双流国际机场本周恢复3条国际航线昨天（2月28日）凌晨，成都至德国法兰克福航线恢复定期飞行，本周，该机场已恢复包括成都至开罗等在内的3条国际航线。目前，成都双流机场国际及地区航线运营数量已恢复至26条。</t>
-  </si>
-  <si>
-    <t>即日起 减免部分涉企征信服务收费 记者今天（3月1日）从国家发展改革委获悉，从2020年3月1日至6月30日，免收企业应收账款质押登记、变更登记、异议登记费。免收农村商业银行、农村合作银行、农村信用社等10类金融机构征信查询服务费，预计可减轻企业负担1.64亿元。</t>
-  </si>
-  <si>
-    <t>2月份全国铁路发送货物3.1亿吨 2月份，全国铁路累计发送货物3.1亿吨，同比增长4.5%。自2月17日以来，每日发送货物连续保持在1100万吨以上。在高效运送疫情防控物资的基础上，确保了电煤、春耕备耕物资以及复工企业原材料等重点物资运输需求。</t>
-  </si>
-  <si>
-    <t>我国向新西兰出口首批生姜 2月28日，我国出口新西兰的首批新鲜生姜正式装箱运往新西兰。这批生姜共21.6吨，产自山东安丘、青州，大约25天运抵新西兰。这是我国生姜获得新西兰市场准入之后，500吨生姜出口合同的一部分。</t>
-  </si>
-  <si>
-    <t>助力复工复产 北京健康宝发布上线 今天（3月1日），北京市正式上线并推广小程序“北京健康宝”，这是北京市大数据中心针对当前新冠肺炎疫情防控需要，方便个人查询自身防疫相关健康状态的小工具，在京及进返京人员均可用其作为复工复产、日常出行的防疫相关健康状态参考。</t>
-  </si>
-  <si>
-    <t>电视剧《谷文昌》今晚央视播出 电视剧《谷文昌》今晚（3月1日）起在央视综合频道播出。该剧讲述了党的好干部谷文昌带领福建东山人民治沙造林、让“荒岛”变“宝岛”，用实际行动赢得百姓爱戴和敬仰的故事，再现了一个不忘初心、牢记使命、清廉务实的人民公仆形象。</t>
-  </si>
-  <si>
-    <t>蔡雪桐获单板滑雪美国公开赛冠军当地时间2月29日举办的美国公开赛单板滑雪U型场地比赛上，中国选手蔡雪桐以88.16分夺得冠军。这是中国运动员首次获得该赛事的金牌。美国公开赛是一项传统的单板滑雪顶级职业赛事，是U型场地本赛季最后一场也是最重要的一场国际A级赛事。</t>
-  </si>
-  <si>
-    <t>我国最大内陆淡水湖博斯腾湖今起禁渔从今天（3月1日）起，我国最大内陆淡水湖博斯腾湖进入为期112天的禁渔期，同时开展专项治理活动。博斯腾湖位于新疆塔里木盆地东北缘，水域面积上千平方公里，湖中水产丰富，是新疆最大的渔业生产基地。</t>
-  </si>
-  <si>
-    <t>中小微企业贷款可申请延期还本付息银保监会、人民银行等五部门联合发布通知，今年1月25日至6月30日期间，如果中小微企业，包括小微企业主和个体工商户，受疫情影响不能按时偿还银行的贷款本金和利息，可以向银行提出延期申请，最长可以延长到今年6月30日，免收罚息。</t>
-  </si>
-  <si>
-    <t>我国口罩日产能产量双双突破一亿只 国家发展改革委最新调度数据显示，2月29日我国口罩日产能达到1.1亿只，日产量达到1.16亿只，双双突破1亿只，分别是2月1日的5.2倍和12倍，进一步缓解了口罩供需矛盾。</t>
-  </si>
-  <si>
-    <t>全国有线电视网络整合工作启动 国家广播电视总局今天（3月2日）启动“全国一网”整合工作。“全国一网”整合由中国广播电视网络有限公司联合各省级网络公司战略投资者共同组建。</t>
-  </si>
-  <si>
-    <t>河北902个项目今天开工河北多地的春季重点项目今天集中开工，共开工项目902个，总投资5151.32亿元，涉及战略新兴产业、先进装备制造、生物医药健康等领域。</t>
-  </si>
-  <si>
-    <t>江西推进“电商助农行动”为破解受疫情影响的农产品滞销难题，江西动员省内电商平台和电商企业展开“电商助农行动”，借助电商渠道，近半个月累计销售330多万单，销售金额超过3亿元。</t>
-  </si>
-  <si>
-    <t>渝怀铁路增建二线一特大桥合龙渝怀铁路增建二线控制性工程——怀化舞水湾滩特1号特大桥今天合龙。横跨重庆、贵州、湖南三省市的渝怀铁路承担着武陵山区脱贫发展的物资运输任务，因原有线路无法满足需求，所以新增建设二线。</t>
-  </si>
-  <si>
-    <t>央视频“春暖花开 国聘行动”启动中央广播电视总台“央视频”携手国投集团，与国资委共同合作的大型线上招聘活动今天（3月2日）启动。求职者可通过“央视频”在线浏览相关招聘岗位，并投递简历。首批招录名额达75000人。</t>
+    <t>江西婺源的油菜花与徽派建筑、江苏南京梅花山</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南保山青华海国家湿地公园</t>
   </si>
   <si>
     <t>新疆玛纳斯湿地越冬天鹅北飞回迁随着天气逐渐转暖，在新疆玛纳斯国家湿地公园越冬的大批天鹅开始陆续往北方回迁。去冬今春在此越冬的天鹅超过800只，创历史最高。</t>
-  </si>
-  <si>
-    <t>大型灌区累计灌溉农田1770多万亩 水利部发布，截至3月2日，全国有12个省98处大型灌区开始春灌。华北、黄淮海平原等冬麦区已累计灌溉农田1770多万亩，引水22亿立方米。目前各地灌区土壤墒情总体较好。</t>
-  </si>
-  <si>
-    <t>新冠疫情期间网上复诊医保可报销 国家医保局、国家卫生健康委联合发出通知，新冠肺炎疫情防控期间，对符合要求的互联网医疗机构为参保人提供的常见病、慢性病线上复诊服务，各地可依规纳入医保基金支付范围。</t>
-  </si>
-  <si>
-    <t>疫情防控期间要维护好职工合法权益 全总近日下发通知，对受疫情防控措施影响不能提供正常劳动的职工，要求各级工会组织依法督促所在企业不得在疫情防控期间解除劳动合同或退回被派遣劳动者。对于企业安排以灵活方式在家上班的职工，按照正常工作期间的工资收入支付工资。</t>
-  </si>
-  <si>
-    <t>三部门联合发布16个新职业 近日，人力资源社会保障部、市场监管总局、国家统计局联合向社会发布了智能制造工程技术人员、网约配送员、呼吸治疗师等16个新职业。这是自2015年版《中华人民共和国职业分类大典》颁布以来发布的第二批新职业。</t>
-  </si>
-  <si>
-    <t>国家林草局成立指挥部防控沙漠蝗灾 联合国粮农组织向全球发布沙漠蝗灾害预警之后，国家林草局日前成立了草原蝗灾防治指挥部，组织专家就沙漠蝗灾可能对我国草原带来的影响进行科学研判，制定防控措施。</t>
-  </si>
-  <si>
-    <t>C919飞机在南昌展开湿地滑行试验随着南昌瑶湖机场的全面复工，我国自主研制的国产大飞机C919飞机105架机昨天（3月2日）在南昌瑶湖机场跑道进行了湿地滑行试验，测试在湿润的地面上飞机滑行、着陆系统等各方面的性能。</t>
-  </si>
-  <si>
-    <t>“华龙一号”全球首堆热试基本完成 我国具有完全自主知识产权的三代核电“华龙一号”全球首堆——中核集团福清核电5号机组热态性能试验基本完成。全面验证了核电机组在热态运行时的可靠性，相关参数满足设计要求，为后续机组装料、并网发电等奠定了坚实基础。</t>
-  </si>
-  <si>
-    <t>全国公安侦办涉野生动物刑事案件948起 按照公安部统一部署，疫情防控以来，各地公安机关严厉打击破坏野生动物资源违法犯罪活动。截至3月2日，共侦办涉及野生动物的刑事案件948起、查处行政案件2147起，收缴野生动物9.2万头（只）、野生动物制品5300多公斤。</t>
-  </si>
-  <si>
-    <t>济南铁警缴获假冒伪劣口罩32万余只近日，济南铁路公安处根据线索，打掉一个销售伪劣疫情防控物资的犯罪团伙，抓获16名犯罪嫌疑人，缴获假冒伪劣口罩32万只，捣毁储存、销售窝点15处，追缴赃款15万余元。</t>
-  </si>
-  <si>
-    <t>一季度内现有项目用地审批清零 自然资源部表示，继续推进下放土地审批权改革。特别是当前，要集中力量、全面完成已经受理的各类建设项目用地审批，一季度内现有存量项目审批清零，全力支持企业复工复产，保障后续建设项目落地。</t>
-  </si>
-  <si>
-    <t>嫦娥四号完成第十五月昼科学探测 嫦娥四号探测器于昨日（3月2日）顺利完成第十五月昼科学探测工作，进入第十五月夜休眠期。本次月昼期间有效载荷按计划开机工作，地面接收科学探测数据正常。根据探测规划路径，“玉兔二号”月球车已累计行驶399.788米。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆玛纳斯国家湿地公园</t>
+  </si>
+  <si>
+    <t>正值花开季 感受春气息进入三月，鲜花迎春绽放，处处洋溢着春天的气息。在四川广元，十里樱花谷的野生樱花随风摇曳；在安徽金寨，近两公里的玉兰谷中，野生玉兰花竞相绽放；在河南驻马店，万亩海棠繁花似锦，唯美动人。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春暖花开景色美春回大地，万物复苏。这两天，各地鲜花竞相开放，景色怡人。在江苏句容，花期只有半个月的濒危树种——宝华玉兰格外娇艳；在云南罗平，百万亩油菜迎来盛花期，从空中俯瞰，大地流金；在广西南宁，南国木棉热烈奔放；在江西宁都，李花如似雪景色如画，一派春的气息。</t>
-  </si>
-  <si>
-    <t>东北地区出现较强降雪受冷空气影响，昨天（3月2日）开始，我国东北地区迎来大风降温和降雪天气，局部出现暴雪。在黑龙江绥芬河，三个小时内积雪深度就达10厘米。中央气象台预计，北方此次降水持续短，雨雪之后会迅速放晴。</t>
-  </si>
-  <si>
-    <t>海关总署：严格防控 应对疫情输入风险为遏制疫情通过口岸传播扩散，全国海关对所有出入境人员严格实施100%查验健康申报，全面开展体温监测筛查，严密实施医学巡查，对来自疫情严重国家或地区的交通工具全部实施登临检疫，严格实施入境交通工具的消毒。截至3月4日零时，全国海关共发现入境有症状旅客6728人，其中疑似病例779例，检出新冠病毒核酸阳性75例。</t>
-  </si>
-  <si>
-    <t>全国煤炭产能恢复正常 能源供给保障充足 国家能源局今天（3月4日）发布的数据显示，截至3月3日，全国煤矿复产率达到83.4%，煤炭产量已恢复到常年同期水平，在运核电机组已经全部复产，电力、油气供应能力充裕，能源供给保障稳定。</t>
-  </si>
-  <si>
-    <t>今年首列中亚钾肥专列过境 连云港今年首列过境江苏连云港港的中亚钾肥专列，昨天（3月3日）在中哈国际物流基地完成装卸，发往马来西亚槟城港。这列钾肥专列2月22日从乌兹别克斯坦塔什干发出，3月2日凌晨到达连云港，共有108个集装箱，总重达2840.4吨，是历次过境钾肥载重量最多的一次。</t>
-  </si>
-  <si>
-    <t>三江源国家公园宏观生态格局继续好转 青海省日前发布《三江源国家公园公报（2019）》。公报显示，三江源生态状况总体稳定，宏观生态格局继续好转，水源涵养量年均增幅6%以上。草地覆盖率、产草量分别比十年前提高了11%和30%以上。</t>
-  </si>
-  <si>
-    <t>湖南破获非法收购出售濒危野生动物制品案 湖南森林警方日前破获非法收购、出售珍贵濒危野生动物制品案，缴获高鼻羚羊角997根，象牙制品3727克，犀牛角制品327.9克，雪豹、野骆驼等其它野生动物制品1200多件，涉案金额高达2600多万元。</t>
-  </si>
-  <si>
-    <t>中央广播电视总台音频客户端“云听”上线 中央广播电视总台高品质声音聚合分发平台“云听”今天（3月4日）正式上线。“云听”依托总台优势资源，除对总台央广、国广的优质音频资源进行收录、分发以外，还打通总台5G智能新媒体中台，对总台央视视频内容进行音频化再生产，深入开发总台独家版权资源，为各类终端用户提供优质的声音产品和服务。</t>
-  </si>
-  <si>
-    <t>正值花开季 感受春气息进入三月，鲜花迎春绽放，处处洋溢着春天的气息。在四川广元，十里樱花谷的野生樱花随风摇曳；在安徽金寨，近两公里的玉兰谷中，野生玉兰花竞相绽放；在河南驻马店，万亩海棠繁花似锦，唯美动人。</t>
-  </si>
-  <si>
-    <t>我国地基量子密钥分发距离刷新世界纪录 记者从中国科学技术大学获悉，该校潘建伟院士团队近期与清华大学等机构合作，实现了500公里级真实环境光纤的双场量子密钥分发和相位匹配量子密钥分发，创造了新的世界纪录。该成果将大幅提升远距离光纤量子保密通信网络的安全性。</t>
-  </si>
-  <si>
-    <t>民政部：中、低风险区域养老机构可逐步开放民政部要求，在确保疫情防控到位的前提下，无确诊病例县（区）的养老机构，经当地党委政府同意后，可有序恢复开放；中、低风险区域的养老机构，按照当地疫情联防联控机制统一部署，逐步恢复开放。</t>
-  </si>
-  <si>
-    <t>截至2月底全国发行地方债券超万亿元 财政部最新消息，截至2月底，2020年发行地方债券12230亿元，全部为新增债券，完成中央提前下达额度（18480亿元）的66.2%，平均发行利率3.44%，比2019年下降3个基点。</t>
-  </si>
-  <si>
-    <t>银保监会：将组织开展意外险市场清理整顿银保监会今天（3月5日）发布《关于加快推进意外险市场改革的意见》，将逐步淘汰赔付率过低、渠道费用过高、定价明显不合理的产品；针对搭售和捆绑销售、手续费畸高、财务业务数据不真实等问题，还将组织开展意外险市场清理整顿。</t>
-  </si>
-  <si>
-    <t>铁路部门阶段性下浮货运杂费 国铁集团决定，自3月6日起至6月30日，对部分铁路货运杂费实施阶段性减半核收政策，进一步降低企业物流成本，预计向企业和货主让利约3.8亿元。有关降费信息将在铁路货运95306网站进行公告。</t>
-  </si>
-  <si>
-    <t>百家银行将支持全国1000万家小微企业复工复产全国工商联今天（3月5日）宣布，将与中国银行业协会等共同发起“无接触贷款助微计划”。联合超过100家银行，通过手机在半年内向全国约1000万家小微企业、个体经营者及农户提供信用贷款，支持他们有序复工复产，以及疫情结束之后的扩大生产。</t>
-  </si>
-  <si>
-    <t>北京将对3000家企业启动研发经费资金支持 今天（3月5日），中关村科技型小微企业研发经费支持资金启动申报。该政策将惠及约3000家企业，符合要求的最高可获得20万经费补贴。疫情发生后，中关村整合出台了10项支持措施，加速科技成果在疫情防控一线转化应用。</t>
-  </si>
-  <si>
-    <t>福建率先实现医保电子凭证互联网医院结算 日前，福建在全国率先使用医保电子凭证结算，实现互联网医院的医保结算。通过这项服务，不但在互联网医院看病能用医保自动结算，个人支付部分也可以在线支付。同时实现互联网复诊、处方续方、药品配送到家等。</t>
-  </si>
-  <si>
-    <t>广西启动“五网”建设 构建现代化基础设施体系 广西日前启动实施交通网、能源网、信息网、物流网、地下管网等三年建设计划，将围绕建设西部陆海新通道、全面对接粤港澳大湾区等重大战略，重点推进2800多个项目建设，加快构建一个智能绿色、安全可靠的现代化基础设施体系。</t>
-  </si>
-  <si>
-    <t>《青海湖生态环境保护状况》发布 日前，青海湖景区保护利用管理局发布《青海湖生态环境保护状况》白皮书，首次系统、完整地反映了青海湖生态保护成效，多项指标表明，青海湖“水－鸟－鱼”生态系统持续向好。</t>
-  </si>
-  <si>
-    <t>海关开展专项行动 查获走私野生动物制品20.3吨 今天（3月5日），海关总署开展打击野生动物走私“护卫”2020专项行动，广州、成都、合肥等海关缉私人员抓获犯罪嫌疑人12名，现场查扣国家二级保护动物蛤蚧等野生动物制品20.3吨。犯罪嫌疑人为牟取利益，将来自境外的野生动物制品走私进境，并贩卖至广东等地药材集散市场。海关总署表示，下一步将继续严厉打击野生动物及其制品走私违法犯罪。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏句容宝华玉兰、云南罗平百万亩油菜花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川广元十里樱花谷、安徽金寨近两公里的玉兰谷、河南驻马店万亩海棠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>花开山水间 景色美如画 眼下，各地鲜花盛开，万物复苏，呈现出生机勃勃的美丽景象。不少地方的油菜花进入盛花期，在四川广元，金黄色的花朵点缀山水间，景色怡人。在甘肃文县，3万多亩油菜花迎来了赏花的最好时节。云南泸西的万亩杜鹃满山绽放，生机盎然，美不胜收。</t>
-  </si>
-  <si>
-    <t>人社部：阶段性减免社保费预计超5000亿 记者今天（3月6日）从人社部获悉，目前各地已帮助8300多家重点企业累计招工28万人。在阶段性减免社保费方面，预计养老、失业、工伤三项社会保险共为企业和个体工商户降低成本5000亿元以上。</t>
-  </si>
-  <si>
-    <t>北京冬奥组委：确保筹办任务按时优质完成 近日，北京冬奥组委通过视频方式参加国际奥委会执委会会议。国际奥委会主席巴赫对北京冬奥会筹办工作取得的进展表示赞赏。北京冬奥组委表示，将尽最大努力，做到疫情防控和冬奥筹办两手抓、两不误，确保各项筹办任务按时、优质完成。</t>
-  </si>
-  <si>
-    <t>总投资120亿美元的石化项目落户辽宁 今天（3月6日），总投资120亿美元的石化产业项目落户辽宁，沈阳、香港、休斯顿等三大洲六个城市的分会场同时进行网上签约。项目建成后，辽宁盘锦将成为世界级聚烯烃、化学品生产基地。</t>
-  </si>
-  <si>
-    <t>上海新添百亿级集成电路产业项目 昨天（3月5日）下午，又一百亿级集成电路项目签约落地上海自贸区临港新片区。项目预计投资22亿美元，将有助于拉动临港新片区相关产业集聚，完备产业生态。《临港新片区优质企业跨境人民币结算便利化方案》也在当天发布，通过进一步简化跨境人民币业务结算业务，实现更高水平的贸易投资便利化。</t>
-  </si>
-  <si>
-    <t>青海至泰国曼谷首趟铁海快线 国际班列开行青海至曼谷首趟铁海快线国际班列昨天（3月5日）开行。班列经青海、甘肃、重庆、贵州等省市，到广西钦州港，再船运至泰国曼谷，全程铁路运距3500公里，海运距离1400海里，运行时间约18天。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川广元油菜花、甘肃文县万亩油菜花、云南泸西万亩杜鹃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春暖花开 春意盎然春回大地，春意盎然。三月的海南，木棉、兰花、三角梅吐蕊争艳，美不胜收。湖南怀化、浙江德清等地的油菜花进入盛花期，蔚为壮观。在河南新乡，成片的郁金香如约绽放，如同置身七彩花田。</t>
-  </si>
-  <si>
-    <t>银保监会：继续加强疫情期间保险服务 工作记者从银保监会了解到，对于运输防疫物资和重要生活物资的物流企业车辆，可适当顺延保险期限、延期缴纳车险保费。鼓励保险公司适当减免疫情期间停运的营运车辆、船舶、飞机部分保险费用。湖北地区1月23日起车险保单已适当顺延。</t>
-  </si>
-  <si>
-    <t>我国农村集体产权制度改革试点 今年全面推开中央农办、农业农村部今天（3月7日）发布，今年，农村集体产权制度改革试点将在31个省份全面推开。2015年我国开展农村集体产权制度改革试点以来，超过22.7万个村完成股份合作制改革，全部试点任务将在明年10月底前基本完成。</t>
-  </si>
-  <si>
-    <t>上海浦东新区35个重大工程集中复开工今天（3月7日），上海浦东新区重大工程全面复工正式启动。本批共复工35项重大工程，涉及重大基础设施、生态环境、文化产业、卫生养老等项目，总投资418亿元。这是疫情发生以来，上海最大规模的重大工程复工行动。</t>
-  </si>
-  <si>
-    <t>口罩核心材料产能获突破 中国石化今天（3月7日）宣布成功生产出口罩核心紧缺材料——熔喷布，每天可产6吨，能满足600万片医用平面口罩的生产。中国石化4月中旬还将建成8条熔喷布生产线，届时，每天可供1800万片医用平面口罩所需布料。</t>
-  </si>
-  <si>
-    <t>江苏开行中欧班列频次恢复正常 截至3月7日，今年以来由江苏开行的中欧班列达178列，同比去年增幅33%。疫情期间，江苏启动国际班列过境集装箱疫情防控专项方案，通过智能化无人作业、不见面审批等方式，保障通行“零延时”，目前频次已经恢复正常。</t>
-  </si>
-  <si>
-    <t>广东法院宣判一起非法收购濒危野生动物案 广州花都区法院昨天（3月6日）一审公开宣判一起非法收购珍贵濒危野生动物案。被告人陈某某为牟取非法利益，介绍他人非法收购走私入境的一类濒危野生动物马来亚穿山甲死体747公斤，一审获刑八年。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南，木棉、兰花、浙江德清油菜花、三角梅、河南新乡，成片的郁金香</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>鲜花竞放 春色如许眼下，正是春光明媚、桃红柳绿的好时节。在浙江宁海、四川巴中，漫山遍野的油菜花竞相开放，一片金黄。在江西武宁，上万株桃花如霞似锦，开放在山水之间。在陕西华州，1000多亩樱桃花次第绽放，呈现出一幅美丽的春日画卷。</t>
-  </si>
-  <si>
-    <t>三部门拟授予表彰防疫一线优秀女性 全国妇联、国家卫生健康委、中央军委政治工作部联合下发通知，拟表彰在疫情防控一线救治、护理、科研攻关等方面成绩突出的女医务人员，拟授予全国三八红旗手500名、全国三八红旗集体100个。同时，全国妇联还将对在疫情防控中特别是社区联防联控、群防群治中涌现出的优秀女性和集体进行表彰。</t>
-  </si>
-  <si>
-    <t>全国已建28.6万个女职工哺乳室 今天（3月8日），记者从中华全国总工会了解到，全国已建立女职工休息哺乳室达28.6万个，覆盖哺乳期女职工1857.1万人。目前，全国已有27个省、市、自治区总工会设立了专项资金，推进女职工哺乳室建设。</t>
-  </si>
-  <si>
-    <t>一批重大重点项目在江西南昌集中开工 一批重大重点项目日前在江西南昌集中开工，首批项目129个，总投资超过1000亿元，主要涉及工业、服务业、农业、民生等多个领域。目前，南昌规模以上工业企业全部复产，产能恢复率达到50%。</t>
-  </si>
-  <si>
-    <t>山花烂漫 春意正浓 草木复苏、春回大地。这几天，贵州六枝木岗镇万亩油菜花全面进入盛花期，从空中俯瞰，宛如一幅色彩斑斓的油画。而浙江仙居的油菜花在粉墙黛瓦的映衬下，独具江南特色。江苏淮安洪泽湖全长1公里的古堰梅堤，朵朵梅花依次绽放，传递着浓浓的春意。</t>
-  </si>
-  <si>
-    <t>国务院安委办部署加强复工复产 安全生产工作日前，国务院安委会办公室、应急管理部印发通知，要求在支持推进企业复工复产的同时，加强近期典型事故剖析和数据研判，摸清安全风险隐患问题；深刻吸取福建泉州“3·7”坍塌事故教训，立即开展隔离观察场所建筑安全风险隐患排查。</t>
-  </si>
-  <si>
-    <t>一批高质量项目在广州南沙区签约动工 今天（3月9日），59个高质量项目在广州南沙区签约动工。项目涵盖基础研究、科技创新、现代医疗及重大民生等领域，总投资超过1600亿元。其中百亿元的项目多达12个。广州南沙作为广东重点打造的粤港澳全面合作示范区，这次与港澳合作项目就有24个，投资额达828.16亿元。</t>
-  </si>
-  <si>
-    <t>海关今晨查获走私穿山甲鳞片820公斤 在海关总署的统一指挥下，南宁、合肥两地海关今天（3月9日）凌晨联合公安部门，打掉了一个偷运入境走私穿山甲鳞片犯罪团伙，抓获犯罪嫌疑人9名，现场查获走私穿山甲鳞片820公斤。青海出台措施 严格管理保护野生动植物青海省相继出台强化野生动物和野生植物保护的“双十条”措施，从加强野外栖息地保护、驯养繁殖监管、疫源疫病监测方面进一步严格管理保护野生动植物。青海是全球高海拔地区生物多样性最集中的地区之一，目前有野生动物超过600种。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江宁海、四川巴中，漫山遍野的油菜花、陕西华州，1000多亩樱桃花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春回大地 百花绽放 春回大地，百花绽放。眼下，在四川自贡永安镇，数万亩油菜花如同巨幅的金黄色地毯铺展开来。在安徽长丰义井乡，30万株樱花进入盛花期，红似火，白如雪，绚丽多彩。</t>
-  </si>
-  <si>
-    <t>海关总署：减免滞报金和滞纳金 海关总署推出新措施，对于疫情发生前到岸因疫情而无法及时报关的进口货物，经企业申请可减免滞报金；因疫情影响无法按期缴纳税款的企业，经申请海关可批准最长3个月的延期缴税计划并减免滞纳金。</t>
-  </si>
-  <si>
-    <t>我国完成首次火星探测任务无线联试 今天（3月10日），我国完成首次火星探测任务无线联试，此次联试是北京航天飞行控制中心与航天器正样的唯一一次地面联合演练，充分验证了探测器与地面系统的接口匹配性和一致性，对各类方案、技术状态、软硬件系统进行了全面测试。</t>
-  </si>
-  <si>
-    <t>“探索一号”启航 执行今年首次科考任务今天（3月10日）上午，中科院“探索一号”船搭载“深海勇士”号载人潜水器和60名科考队员在三亚崖州湾科技城南山港码头启航，开始执行为期20天的科考航次任务。这也是三亚南山港首次为科考船启航提供支持保障服务。</t>
-  </si>
-  <si>
-    <t>大藤峡水利枢纽工程今天开始下闸蓄水 今天（3月10日）上午，位于广西桂平的大藤峡水利枢纽工程开始正式下闸蓄水。2014年动工的大藤峡水利枢纽工程是国家172项节水供水重大水利工程的标志性工程。蓄水达到52米高程后，将提高粤港澳大湾区城乡生活生产和生态供水能力。</t>
-  </si>
-  <si>
-    <t>江西635个重大项目今天开工 今天（3月10日），江西全省共有635个重大项目集中开工。此次开工项目均为各地三月份新开工的亿元以上重大项目，项目总投资3715亿元，涉及基础设施、产业升级、公共服务和生态环保四大类。</t>
-  </si>
-  <si>
-    <t>青海首批高中 中职学校 昨起开学昨天（3月9日）起，青海省的普通高中、中等职业学校陆续开学。在青海海东、玉树等地，第一批开学的中学生已经返回校园。根据青海省教育部门的安排，初中原则上在3月16日至20日陆续开学。</t>
-  </si>
-  <si>
-    <t>税务总局：企业复工复产出现积极变化 国家税务总局公布的最新增值税发票数据显示，3月首周，大型、中型企业开票户数分别相当于去年同期的77.4%和69.9%，环比上周分别提升5.3和12.4个百分点，反映大中型企业复工复产成效明显。从行业看，农副食品加工、食品制造业日均开票金额已达到去年同期的90%以上。</t>
-  </si>
-  <si>
-    <t>革命老区2020年脱贫攻坚重点任务明确 记者从国家发展改革委获悉，革命老区脱贫攻坚和振兴发展2020年年度重点任务已经明确，将以赣南等原中央苏区、陕甘宁、大别山、左右江、川陕等革命老区为重点，深入开展产业、就业、消费、金融等方面扶贫，加快实施铁路、公路、水运、能源等领域重大基础设施项目。</t>
-  </si>
-  <si>
-    <t>甘肃兰州完成筏板超大体积混凝土浇筑 日前，甘肃兰州中央商务区建设，一次性完成20210立方米筏板超大体积混凝土浇筑。筏板位于地基的底层，其一次性浇筑可以更好抵抗建筑物不均匀沉降。这为我国在特殊时期、不良地质条件下，修建大型城市综合体提供了宝贵经验。</t>
-  </si>
-  <si>
-    <t>黄河开河长度过半 截至今天（3月11日）上午8时，黄河内蒙古河段三湖河口水文断面平稳开河，开河日期较常年偏早11天。目前黄河累计解冻324千米，开河长度已经过半，预计本月中旬将迎来全线开河。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川自贡永安镇，数万亩油菜花、安徽长丰义井乡，30万株樱花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>繁花似锦 春意盎然随着天气转暖，各地鲜花竞相绽放，一派春意盎然的景象。四川遂宁40多个品种100多万株郁金香进入最佳观赏期；安徽歙县的玉兰花亭亭玉立；南京高淳十万亩油菜花花开正艳；在山西平陆，黄土高坡上的片片花海，美不胜收；在河南商丘，漫山遍野的杏花将春色点缀得绚烂多彩。大批红嘴鸥飞抵乌海湖这两天，大批红嘴鸥飞抵内蒙古乌海湖觅食栖息，数量达到2000多只。近年来，随着生态保护力度不断加大，为候鸟迁徙繁衍提供了有利条件。</t>
-  </si>
-  <si>
-    <t>国务院成立泉州欣佳酒店“3·7”坍塌事故调查组 记者从应急管理部获悉，3月7日19时5分许，福建省泉州市鲤城区欣佳酒店发生楼体坍塌事故，造成29人死亡、42人受伤。依据《生产安全事故报告和调查处理条例》有关规定，国务院决定成立福建省泉州市欣佳酒店“3·7”坍塌事故调查组并开展调查工作。</t>
-  </si>
-  <si>
-    <t>商务部：19省市重点外贸企业复工率已近100% 记者今天（3月12日）从商务部获悉，目前，山东、安徽、辽宁等8省市的外贸企业复工率超过80%，浙江、江苏、上海等19省市重点外贸企业复工率已达到或接近100%。</t>
-  </si>
-  <si>
-    <t>市场监管总局公布哄抬熔喷布价格违法行为典型案件 市场监管总局近日公布一批查处的哄抬口罩生产核心原料熔喷布价格的典型案件。针对东莞市大成过滤材料有限公司、自然人饶某、深圳市缤纷时尚运动用品有限公司、深圳市恒艺数码印花有限公司、东莞市得米纳米科技有限公司涉嫌构成哄抬价格的违法行为，市场监管总局已依法进行立案调查。</t>
-  </si>
-  <si>
-    <t>多地确定2020年春季学期开学计划 近日，多地发布2020年春季学期计划，贵州高三和初三年级将于3月16日正式开学；山西高三年级按照3月25日做开学准备；云南高三和初三年级将在3月23日开学，中小学其他年级3月30日开学。</t>
-  </si>
-  <si>
-    <t>新疆：交通及公共服务场所陆续恢复运行和营业 从3月8日开始，新疆各地市州城市公共交通及疆内铁路、客运、航空陆续恢复运行。目前，酒店、商场、超市、餐饮、理发、农贸市场等各类公共服务场所也已恢复营业。</t>
-  </si>
-  <si>
-    <t>270台车无偿支援抗疫工作者 为解决抗疫一线工作者出行困难，北京现代今天（3月12日）无偿提供270台轿车，交付给武汉抗疫一线工作者使用，并在疫情期间，免费提供车辆维修、保养、救援等保障。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川遂宁40多个品种100多万株郁金香、安徽歙县的玉兰花、南京高淳十万亩油菜花、山西平陆，黄土高坡上的片片花海、河南商丘，漫山遍野的杏花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>山花烂漫 春光无限好 阳春三月，山花竞相绽放。在重庆渝北、湖北崇阳，漫山遍野的李花点缀着春景，为乡村增添一抹亮色。在安徽九华山，油菜花、梅花、迎春花次第盛开，描绘出五彩斑斓的画卷。贵州贵安70万株樱花林中，繁花挂满枝头，将黔中大地装扮得如云似锦。</t>
-  </si>
-  <si>
-    <t>央行定向降准 释放资金5500亿元中国人民银行决定于2020年3月16日实施普惠金融定向降准，对达到考核标准的银行定向降准0.5至1个百分点。在此之外，对符合条件的股份制商业银行再额外定向降准1个百分点，支持发放普惠金融领域贷款。以上定向降准共释放长期资金5500亿元。</t>
-  </si>
-  <si>
-    <t>证监会取消证券公司外资股比限制 证监会今天（3月13日）宣布，自2020年4月1日起取消证券公司外资股比限制，符合条件的境外投资者可根据法律法规、证监会有关规定和相关服务指南的要求，依法提交设立证券公司或变更公司实际控制人的申请。进一步便利境内机构跨境融资措施出台央行、外汇局日前发布，将全口径跨境融资宏观审慎调节参数由1上调至1.25，提高跨境融资风险加权余额上限。这将有助于便利境内机构特别是中小企业、民营企业利用国际国内两种资源、两个市场，多渠道筹集资金，推动企业复工复产。</t>
-  </si>
-  <si>
-    <t>今年央企将投入扶贫资金超33亿元 记者今天（3月13日）从国务院国资委获悉，各中央企业今年将投入和引进无偿帮扶资金33.57亿元，培训基层干部和技术人员9.44万名，购买和帮助销售贫困地区农产品16.59亿元。线上招聘为退役军人提供就业信息退役军人部要求，各级退役军人事务部门要及时发布开复工、就业岗位等信息，丰富网上就业服务项目。截至目前，各地已组织举办退役军人线上招聘2572次，涉及企业10万余家。</t>
-  </si>
-  <si>
-    <t>第三届进博会首批143家展商名单公布 第三届进博会首批143家参展企业名单12日对外公布。其中世界500强占比近四成，涉及服务贸易、汽车、装备等多个行业。截至目前，第三届进博会签约报名参展的企业超过1000家。</t>
-  </si>
-  <si>
-    <t>联通电信联合采购25万5G基站主设备 中国联通与中国电信日前宣布，将联合采购不少于25万个5G基站主设备，力争在今年三季度提前完成全年5G建设计划。目前联通与电信已在全国31个省开通5G共建共享，50多个城市的5G正式商用。</t>
-  </si>
-  <si>
-    <t>广东连破3起破坏野生动物资源案 近日，在广东省公安厅统一部署下，多部门联合行动，连破3起破坏野生动物资源的违法犯罪案件，查获太阳鹦鹉、非洲灰鹦鹉共100只，还有国家一级保护动物辐纹陆龟等珍贵濒危野生动物。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆渝北、湖北崇阳，漫山遍野的李花、安徽九华山，油菜花、梅花、迎春花次第盛开、贵州贵安70万株樱花林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春回大地 百花盛开 阳春三月，各地鲜花次第绽放。在贵州黔西南，桃花似锦，娇艳欲滴；在四川广安，李花满枝，洁白如雪；在云南盈江，万亩杜鹃花迎风开放，红似朝霞；在江西婺源，油菜花海漫山遍野，气势恢宏，构成了一幅幅优美的田园风光。</t>
-  </si>
-  <si>
-    <t>银保监会：加大“三区三州”金融投入银保监会近日要求加大对“三区三州”135个深度贫困县的金融支持。大中型银行在“三区三州”深度贫困县的分支机构要将70%以上的新增可贷资金用于当地，进一步提高深度贫困县不良贷款容忍度，对符合贷款条件、具备一定还款能力的建档立卡贫困户做到应贷尽贷。</t>
-  </si>
-  <si>
-    <t>超3000项电网工程全面复工复产 国家电网发布的最新数据显示，截至目前，除湖北省外，所有在建3205项输变电工程、33项抽水蓄能工程已经全部复工复产。国家电网今年全年的电网投资将超过4000亿元，可带动社会投资8000亿元以上，整体规模将超过1.2万亿元。</t>
-  </si>
-  <si>
-    <t>多地中欧班列开行数量逆势增长 3月份以来，由湖南长沙、株洲、怀化始发的中欧班列，班次数量比上月增长超过30%。中欧班列中线出入境口岸——二连浩特铁路口岸接运出入境中欧班列同比增长20.4%。福建厦门始发的中欧班列预计今年3月的开行数量和2019年月平均量相比增长50％。</t>
-  </si>
-  <si>
-    <t>“国聘行动”累计提供招聘职位超10万由中央广播电视总台“央视频”携手国投集团，与国务院国资委共同推出的大型线上招聘活动“国聘行动”，自3月2日启动以来，已面向社会提供了超10万个招聘职位，累计入驻企业近2500家。目前，有意向提供职位的企业数量还在持续增加，求职者可下载“央视频”了解最新职位信息。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州黔西南，桃花似锦、四川广安，李花满枝、云南盈江，万亩杜鹃花、江西婺源，油菜花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>北京：野鸭湖湿地迎大批北迁候鸟北京最大湿地——延庆野鸭湖陆续迎来上万只北迁候鸟，天鹅、豆雁、苍鹭等或在湖中嬉戏，或埋头觅食，或叼草筑巢，形成一道亮丽的风景线。</t>
-  </si>
-  <si>
-    <t>全国铁路建设项目复工率达93% 目前，全国已有108个铁路重点工程项目复工，项目复工率达93%，累计进场施工和技术管理等人员45万人。银川至西安高铁、太原至焦作高铁、京沈高铁北京和河北段等今年计划开通项目100%复工，复工率达100%。</t>
-  </si>
-  <si>
-    <t>永定河联合生态补水 今天全面启动今天（3月15日）上午，黄河万家寨水利枢纽、山西册田、河北洋河等多座水库陆续开闸，联合向永定河下游生态补水。截至2019年，通过定期补水，永定河300天以上不断流的通水河段达513公里，北京山峡段40年来首次实现了不断流。</t>
-  </si>
-  <si>
-    <t>拉萨贡嘎国际机场航站区改扩建工程复工今天（3月15日），拉萨贡嘎国际机场航站区改扩建工程正式复工。工程包括新建8.8万平方米T3航站楼、21个机位的站坪、配套建设等设施。工程建成后，将满足每年900万人次出行。</t>
-  </si>
-  <si>
-    <t>“金龙-2020”中柬联合训练今天开训 “金龙-2020”中柬两军联合训练今天（3月15日）在柬埔寨贡布省王家军某训练场开训。在为期半个月的训练中，双方800多名官兵混编同训，展开轻武器射击、机降和反恐战术等课目的训练，提升共同应对恐怖主义安全威胁的能力。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京延庆野鸭湖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春花烂漫 处处好生态迎着春日暖阳，河南商丘10万株郁金香次第开放；云南文山仙人湖畔的格桑花如期盛开；在浙江淳安，连绵的山岭上，是或粉或白的樱花，湖岸边的田野里，是金黄色的油菜花；在安徽休宁、江苏句容，竞相开放的油菜花，宛如一幅幅田园画卷，美不胜收，处处呈现良好生态。</t>
-  </si>
-  <si>
-    <t>全国重大水利工程复工复产超80% 截止到今天（3月16日），全国110项在建重大水利工程已有93项复工，复工率达84.5%，返岗人员达80%。除东北西北地区部分工程受气候条件限制外，3月底前全部在建项目复工可达100项以上。</t>
-  </si>
-  <si>
-    <t>财政部、交通运输部：阶段性减免港口建设费 财政部、交通运输部今天（3月16日）发布公告，自2020年3月1日零时起至2020年6月30日24时止，免征出口国外和国外进口货物的港口建设费；减半征收船舶油污损害赔偿基金。铁路部门开行300列务工专列保障复工复产全国铁路部门科学有序做好务工人员返程运输，自2月16日首趟务工专列开行以来，截至3月15日，全国铁路已累计开行务工专列300列，包车厢1250辆（次），运送旅客已达33.2万。近期计划再安排务工专列13列，包车厢35辆（次）。</t>
-  </si>
-  <si>
-    <t>鼓励民营企业加快恢复并扩大生猪生产 国家发展改革委、农业农村部印发《关于支持民营企业发展生猪生产及相关产业的实施意见》，针对用地、环保、信贷、保险等突出问题加大扶持力度，鼓励民营企业立足当前，加快恢复并扩大生猪生产。</t>
-  </si>
-  <si>
-    <t>中欧班列“长安号”开行量突破450列 截至目前，2020年中欧班列“长安号”开行量已突破450列，是去年同期2倍以上，运送货物总重37万余吨，班列开行量、重箱率、货运量等核心指标位居全国前列。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南商丘10万株郁金香、云南文山仙人湖畔的格桑花、浙江淳安樱花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>百花盛开满眼春阳春三月，繁花似锦。在四川苍溪，1000亩李花竞相绽放，漫山遍野银装素裹，一片清新怡人景象。在江苏南京，多个早花品种的海棠花都已进入盛花期。在江西新余，100多万株60多种郁金香次第开放。北方多地迎来大批候鸟这两天，北方多地迎来大批候鸟。位于山西朔州的桑干河上游迎来上万只迁徙候鸟。青海海东黄河库区水面上出现大批水鸟，在波光粼粼的水面嬉戏。山东蓬莱成千上万只海鸥翩翩起舞，吸引了市民驻足观赏。</t>
-  </si>
-  <si>
-    <t>电视剧《一个都不能少》今晚开播电视剧《一个都不能少》 今晚（3月16日）起在央视综合频道黄金档开播。该剧展现了在脱贫攻坚奔小康的道路上，西部农村面貌和农民精神风貌发生的巨大变化，反映了新时代脱贫攻坚第一线所取得的显著成效和典型经验。</t>
-  </si>
-  <si>
-    <t>今天24点汽柴油价格大幅下调 国家发展改革委消息，受国际油价大幅下跌影响，自3月17日24时起，国内汽柴油价格每吨分别下调1015元、975元。全国平均来看，92号汽油每升下调0.80元，0号柴油每升下调0.83元。</t>
-  </si>
-  <si>
-    <t>长江口北支航道首次通航超大型油轮 昨天（3月16日），一艘30万吨超大型油轮“猎鹰”顺利进靠江苏南通启东码头，轮船长333米，宽58米，型深28.55米，是长江入海口北支航道通航以来接待的最大吨位船舶。该油轮还将在两年内改造升级成大型浮式生产储卸油平台。</t>
-  </si>
-  <si>
-    <t>贵州出台促进高校毕业生就业创业措施 今天（3月17日），贵州省出台《促进2020年高校毕业生就业创业十条措施》，包括招聘特岗教师、开发公益性岗位等，通过切实有效的举措，增加高校毕业生就业岗位，鼓励高校毕业生就业创业。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川苍溪，1000亩李花、江西新余，100多万株60多种郁金香、山西朔州的桑干河上游迁徙候鸟、青海海东黄河库区水面上出现大批水鸟、山东蓬莱成千上万只海鸥翩翩起舞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>绚烂花海 赏花正当时阳春三月，绚烂花海，赏花正当时。在山东泰山脚下的凤凰河畔，白妙樱、红丰樱等20多个品种的几万株樱花竞相绽放，美景如画。在安徽砀山县，黄河故道两岸的万亩杏花，吸引着慕名前来的游客拍照留影。在海拔2000多米的云南德宏，这些马缨杜鹃大多已有百年树龄，上万亩马缨杜鹃漫山开放。</t>
-  </si>
-  <si>
-    <t>北方快速回暖 多地气温将超20℃今明两天（3月17-18日），我国北方地区暖意升级，东北、华北、黄淮以及西北部分地区，气温超过20℃，刷新今年以来的气温新高。不过，早晨和夜间的气温仍然较低，昼夜温差加大，提醒大家早晚出行时注意保暖。</t>
-  </si>
-  <si>
-    <t>建档立卡贫困户危房改造 6月底竣工住房城乡建设部和国务院扶贫办联合发布通知，要求各地确保所有建档立卡贫困户危房改造于2020年6月底前全部竣工。要分区分级推进农村危房改造工程复工，持续深入抓好危房改造质量不高、补助资金拨付缓慢等问题整改工作。</t>
-  </si>
-  <si>
-    <t>我国启动东北黑土地保护性耕作行动计划 农业农村部今天（3月18日）宣布，从今年开始，国家实施东北黑土地保护性耕作行动计划，力争用5年时间，使得70%左右的东北适宜区域黑土地得到有效保护。</t>
-  </si>
-  <si>
-    <t>市场监管总局：商场超市基本开门复业 国家市场监督管理总局今天（3月18日）公布，自1月29日启动保价格、保质量、保供应“三保”行动以来，截至3月17日，参与企业达15535家。目前，民生用品企业复产率达到70%以上，商场、超市、连锁便利店等基本开门复业。</t>
-  </si>
-  <si>
-    <t>福建：265个重点项目集中开工建设 今天（3月18日），福建省265个重点项目在福州、厦门、漳州等地集中开工建设。其中包括基础设施项目74个、产业项目147个、社会事业项目44个，年度计划投资457亿元。</t>
-  </si>
-  <si>
-    <t>成渝地区双城经济圈建设加速 四川、重庆两地出台方案，从交通运输、生态保护、公共服务等几个方面开展合作共建，加速推动成渝地区双城经济圈建设，力争将成渝地区建设成为具有全国影响力的重要经济中心、科技创新中心。</t>
-  </si>
-  <si>
-    <t>海南三亚17个项目开工 总投资161亿元今天（3月18日），海南西环铁路三亚至乐东段公交化旅游化改造工程、南繁生物实验室等17个重点项目在三亚开工建设，总投资约161亿元。这批重点项目将进一步完善三亚及周边地区的基础设施，提升优化当地营商环境。</t>
-  </si>
-  <si>
-    <t>浙江抗疫医疗专家组启程前往意大利 由浙江省组建的抗疫医疗专家组今天（3月18日）从上海浦东机场出发，前往意大利，协助应对疫情。专家组13人主要来自重症医学科、呼吸内科、感染病科、中医内科等专业。同机还携带一批由浙江等地捐赠给意大利急需的医疗救治物品，包括呼吸机、监护仪、检测试剂等，共计17.3吨。</t>
-  </si>
-  <si>
-    <t>北方多地气温升至20℃以上今天（3月18日），我国北方地区气温继续升高，京津冀、山东、河南等地最高气温都升至20℃以上，天津、石家庄、济南、郑州最高气温都达到26至27℃，比常年同期水平偏高10℃以上。</t>
-  </si>
-  <si>
-    <t>黄河内蒙古冰封河段全线开河截止到今天（3月18日）上午，黄河内蒙古封冻河段全线开通。本年度黄河内蒙古河段首封时间较常年晚3天，全线开河比去年早5天。从开始流凌、封河到开河共计121天。开河期间，没有发生凌汛灾害。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东泰山脚下的凤凰河畔万株樱花、安徽砀山县黄河故道两岸的万亩杏花、云南德宏马缨杜鹃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春回大地 多地迎来大批候鸟随着天气转暖，大批候鸟陆续北迁。在吉林莫莫格湿地，今年首批北迁的120多只东方白鹳给寂静的湿地带来勃勃生机。在黑龙江佳木斯，上万只大雁在松花江上盘旋嬉戏，场面壮观。目前，各地都加大巡护力度，确保停歇的候鸟能够顺利迁徙。</t>
-  </si>
-  <si>
-    <t>人力资源社会保障部：多措并举助力复工复产 人力资源社会保障部今天（3月19日）介绍，截至目前，各地通过专车专列包机等方式运送农民工超过410万人。2月份，全国共减免社会保险费累计1239亿元，全国共有128万户企业享受到失业保险稳岗返还186亿元，惠及职工4230万人。</t>
-  </si>
-  <si>
-    <t>海关总署：50条任务清单促通关便利化 海关总署近日制定50条任务清单，统筹做好口岸疫情防控和通关便利化，全力支持企业复工复产。自1月24日以来，海关对受疫情影响的进口货物累计减免滞报金3366万元，延长汇总征税报关单电子支付时限，惠及企业1569家，涉及税款164亿元。</t>
-  </si>
-  <si>
-    <t>国际海事组织推荐我国编制船舶船员疫情防控操作指南 3月18日，国际海事组织正式向174个成员国推荐由中国海事局编制的《船舶船员新冠肺炎疫情防控操作指南》。《指南》结合广东海事局和航运公司关于船舶疫情防控的实践经验制定，包括了船舶落实防控措施、加强船员个人防护等七个方面。</t>
-  </si>
-  <si>
-    <t>医保电子凭证实现全国覆盖 由国家医保信息平台统一激活的医保电子凭证已经实现全国覆盖，参保人可以在国家医保APP或者通过支付宝等官方授权的第三方渠道领取医保电子凭证，通过手机扫码看病买药。疫情期间，慢性病患者还可以使用医保电子凭证，实现网上“无接触式看病”。</t>
-  </si>
-  <si>
-    <t>我国扩展外债便利化试点范围国家外汇管理局 今天（3月19日）宣布，将我国外债便利化试点范围，在此前北京市中关村国家自主创新示范区的基础上，继续扩展至上海（自由贸易试验区）、湖北（自由贸易试验区及武汉东湖新技术开发区）、广东及深圳（粤港澳大湾区）等省、市。这将进一步便利中小微高新技术企业多渠道筹集资金，降低企业财务成本。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林莫莫格湿地东方白鹳、黑龙江佳木斯上万只大雁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春暖花开 尽享美丽生态随着气温转暖，各地鲜花绚烂绽放。上海金山打造的500亩彩色油菜花进入盛花期；四川华蓥万亩梨花竞相开放；在安徽歙县，漫山遍野的桃花如霞似锦。在江苏溧阳，成片的玉兰、樱花、海棠花把茶山点缀得美不胜收。</t>
-  </si>
-  <si>
-    <t>《战“疫”故事》第一季今晚播出最后一期由中央广播电视总台制作的《战“疫”故事》第一季，今晚（3月19日）8时25分在央视综艺频道播出最后一期。第一季共12期节目，以讲述和朗读的形式，聚焦战“疫”中的医护工作者、社区工作者等典型人物。</t>
-  </si>
-  <si>
-    <t>工业和信息化部发布通知 推动工业互联网加快发展 工业和信息化部今天（3月20日）发布推动工业互联网加快发展的通知。通知明确：推动基础电信企业建设覆盖全国的高质量外网，利用5G改造工业互联网内网；发展50家工业互联网重点平台，推动重点平台工业设备连接数达到80万台、工业APP数量达到2500个。</t>
-  </si>
-  <si>
-    <t>2月境外投资者净增持境内债券140亿美元 国家外汇管理局新闻发言人今天（3月20日）表示：2月份，银行结售汇顺差142亿美元，企业、个人等非银行部门涉外收支顺差96亿美元。今年1至2月，境外投资者净增持境内股票和债券合计205亿美元，月均与2019年水平基本相当，其中2月净增持债券140亿美元，增长较快。数据显示当前境外投资者投资意愿保持稳定，我国在吸引外资流入方面具有较明显的优势。</t>
-  </si>
-  <si>
-    <t>新开发银行70亿元人民币紧急贷款援助中国 由金砖五国共同发起成立的国际金融机构——新开发银行董事会以快速通道方式批准向我国提供总额为70亿元人民币的紧急援助贷款，用于支持湖北省、广东省和河南省抗击疫情有关的公共卫生应急支出。这是新开发银行批准的第一个用于支持成员国抗击疫情的紧急援助贷款，也是国际金融组织为我国抗击疫情迄今所提供的金额最大的主权贷款。</t>
-  </si>
-  <si>
-    <t>新一批金融开放项目在沪开业 今天（3月20日），摩根大通证券（中国）有限公司等5家外资金融机构，在上海举行线上开业仪式。这是上海持续推进新一轮高水平金融对外开放的重要举措。</t>
-  </si>
-  <si>
-    <t>天津港至越南胡志明港集装箱班轮新航线开通 昨天（3月19日），天津港至越南胡志明港集装箱班轮新航线开通。有效解决了天津港与胡志明港间直航运力不足的问题，可为企业节省2天运输时间，减少5%的物流综合成本。目前，天津港已拥有“一带一路”集装箱航线46条。</t>
-  </si>
-  <si>
-    <t>百万只口罩将运往意大利 今天（3月20日），中国医药向意大利紧急出口的100万只欧标医用防护口罩从广东运抵北京，明天（21日）运往意大利。双方还签订了首批800万只欧标医用防护口罩供货协议，将于近日陆续发往意大利。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海金山500亩彩色油菜花、四川华蓥万亩梨花、安徽歙县漫山遍野的桃花、江苏溧阳茶山成片的玉兰、樱花、海棠花把</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春光明媚 赏花正当时春光明媚，赏花正当时。在江苏扬州，金灿灿的油菜花与碧波湖水相互映衬，构成一幅“湖上花海”的美丽画卷。在安徽六安，十万亩桃花迎春绽放，热烈娇艳，让人沉醉。在重庆垫江，漫山遍野的李花开满枝头，将山坡装点得绚丽多姿。</t>
-  </si>
-  <si>
-    <t>前两个月进口物流需求实现逆势增长 中国物流与采购联合会公布，1-2月份进口物流量同比增长5.5%，实现逆势增长。从货类看，铁矿砂、原油、煤和天然气等大宗商品进口量分别同比增长1.5%、5.2%、33.1%和2.8%；大豆进口量同比增长14.2%；猪肉进口量同比增长1.6倍。</t>
-  </si>
-  <si>
-    <t>2019年全国技术合同成交首破2万亿元 科技部公布，2019年我国共签订技术合同484077项，成交金额22398.4亿元，比上年增长26.6%，首次突破两万亿元。其中技术服务合同成交额12418.1亿元，技术转让合同成交额涨幅最大，同比增长36%。</t>
-  </si>
-  <si>
-    <t>全国首趟搭载出口防疫物资 中欧班列在义乌启程今天（3月21日），全国首趟搭载出口欧洲防疫物资的中欧班列从义乌启程，预计17天后抵达西班牙马德里。此趟中欧班列装载100个标准集装箱，其中防疫物资主要为医用口罩、防护服等，用于支援当地疫情防控。</t>
-  </si>
-  <si>
-    <t>广东茂名烷烃资源综合利用项目开工建设 今天（3月21日），总投资400亿元的茂名烷烃资源综合利用项目开工建设。项目将分三期建设，以发展丙烷-丙烯-聚丙烯产业链为主线，打造世界级聚丙烯生产基地。</t>
-  </si>
-  <si>
-    <t>上海：“文创保”首期规模10亿 服务中小微文创企业为缓解中小微文创企业融资难、融资贵，上海推出“文创保”专项产品，首期规模10亿。上年度营业收入300万元以上的本市注册文创企业都能申请，贷款审批时间不超过15天。</t>
-  </si>
-  <si>
-    <t>各地博物馆陆续恢复开放国家文物局消息，截至目前全国已有19个省区市的近200家博物馆恢复开放，通过采取网上实名预约、分区域开放、语音讲解和数字导览等措施，在保障观众安全的同时，丰富公众的文化生活。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏扬州金灿灿的油菜花、安徽六安十万亩桃花、重庆垫江漫山遍野的李花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>春暖处处景 花开好时节阳春三月，春暖花开。在河南荥阳古柏渡，漫山的樱花花海连接遍地的金色油菜花田，伴着紫色的二月兰，一片姹紫嫣红。在四川泸州古蔺县双沙镇，上万亩优质高产油菜在乌蒙山区的开阔峡谷间开放。金黄遍地春色好，江苏泰州千垛景区内的4600亩油菜也形成一片花的海洋，曼妙了春日时光。江西峡江县的千亩梨花迎来盛花期，吸引了不少市民前去踏青赏花。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南荥阳古柏渡，漫山的樱花花海连接遍地的金色油菜花田、四川泸州古蔺县双沙镇，上万亩优质高产油菜、江苏泰州千垛景区内的4600亩油菜、江西峡江县的千亩梨花</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内联播快讯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2607,16 +2718,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C430"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431"/>
+    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
+      <selection activeCell="B410" sqref="B410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,9 +2738,6 @@
       <c r="B1">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -2795,7 +2904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20200103</v>
       </c>
@@ -2806,7 +2915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20200104</v>
       </c>
@@ -2817,7 +2926,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20200104</v>
       </c>
@@ -2828,7 +2937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20200104</v>
       </c>
@@ -2839,7 +2948,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20200105</v>
       </c>
@@ -2850,7 +2959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20200105</v>
       </c>
@@ -2861,7 +2970,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20200105</v>
       </c>
@@ -2872,18 +2981,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20200105</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="D24" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20200105</v>
       </c>
@@ -2891,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20200106</v>
       </c>
@@ -2902,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20200106</v>
       </c>
@@ -2916,7 +3028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20200106</v>
       </c>
@@ -2924,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20200106</v>
       </c>
@@ -2935,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20200106</v>
       </c>
@@ -2946,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20200107</v>
       </c>
@@ -2957,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20200107</v>
       </c>
@@ -2968,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2979,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2990,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3012,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3023,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3034,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3056,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3078,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3089,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3100,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3111,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3155,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3166,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3177,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3188,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3199,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3221,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3232,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3243,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3265,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3298,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3309,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3320,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3331,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3364,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3375,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3386,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3397,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3419,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3430,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3441,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3452,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3463,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3474,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3485,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3496,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3507,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3518,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3529,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3540,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3562,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3573,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3584,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3595,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3606,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3617,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3628,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3639,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3650,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3661,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3672,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3683,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3694,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3705,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3716,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3727,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3749,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3760,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3782,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3793,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3804,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3815,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3826,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3837,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3848,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3859,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3870,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3881,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3903,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3914,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3936,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3947,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3958,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3969,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="C123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3980,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3991,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -4002,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -4013,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -4024,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -4035,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -4046,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4057,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -4090,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -4101,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -4112,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -4156,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -4167,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4189,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -4200,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -4211,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -4222,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -4233,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4255,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -4277,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4288,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4299,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -4310,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -4321,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -4332,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -4343,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -4365,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -4376,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4387,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4398,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4409,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4420,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4431,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4442,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4453,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4464,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4475,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4486,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4497,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4508,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4519,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4541,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4574,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4596,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4607,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4618,7 +4730,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4629,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4640,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4651,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4684,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4695,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4706,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4717,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4728,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4739,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4750,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4761,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4772,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4783,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4794,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4805,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4838,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4849,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4871,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4882,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4893,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4904,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4915,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4926,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4937,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4948,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4959,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4970,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4981,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4992,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -5003,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -5025,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -5036,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -5047,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -5069,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -5080,10 +5192,10 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>20200222</v>
       </c>
@@ -5094,7 +5206,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>20200222</v>
       </c>
@@ -5102,10 +5214,10 @@
         <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>20200222</v>
       </c>
@@ -5113,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>20200222</v>
       </c>
@@ -5124,10 +5236,10 @@
         <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>20200222</v>
       </c>
@@ -5135,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="C229" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>20200222</v>
       </c>
@@ -5146,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>20200222</v>
       </c>
@@ -5157,10 +5269,10 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>20200222</v>
       </c>
@@ -5171,7 +5283,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>20200222</v>
       </c>
@@ -5179,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="C233" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>20200222</v>
       </c>
@@ -5190,10 +5302,10 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>20200223</v>
       </c>
@@ -5201,10 +5313,10 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>20200223</v>
       </c>
@@ -5212,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="C236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>20200223</v>
       </c>
@@ -5223,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="C237" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>20200223</v>
       </c>
@@ -5234,21 +5346,24 @@
         <v>0</v>
       </c>
       <c r="C238" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>20200223</v>
       </c>
       <c r="B239" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C239" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="D239" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>20200224</v>
       </c>
@@ -5256,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="C240" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -5289,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -5300,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -5322,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -5333,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -5355,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -5366,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -5388,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="C252" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -5399,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -5421,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -5435,7 +5550,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>20200227</v>
       </c>
@@ -5446,7 +5561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>20200227</v>
       </c>
@@ -5457,7 +5572,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>20200227</v>
       </c>
@@ -5465,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20200227</v>
       </c>
@@ -5476,10 +5591,10 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>20200227</v>
       </c>
@@ -5487,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>20200227</v>
       </c>
@@ -5498,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>20200227</v>
       </c>
@@ -5509,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20200227</v>
       </c>
@@ -5523,7 +5638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>20200227</v>
       </c>
@@ -5531,21 +5646,24 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>20200227</v>
       </c>
       <c r="B266" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="D266" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>20200228</v>
       </c>
@@ -5553,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>20200228</v>
       </c>
@@ -5564,10 +5682,10 @@
         <v>0</v>
       </c>
       <c r="C268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>20200228</v>
       </c>
@@ -5575,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="C269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>20200228</v>
       </c>
@@ -5586,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>20200228</v>
       </c>
@@ -5597,10 +5715,10 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>20200228</v>
       </c>
@@ -5608,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -5619,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -5630,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5641,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -5652,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -5663,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5674,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -5685,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="C279" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -5696,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -5707,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -5718,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -5729,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -5740,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -5751,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -5762,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5773,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="C287" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5784,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="C288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>20200301</v>
       </c>
@@ -5795,10 +5913,10 @@
         <v>0</v>
       </c>
       <c r="C289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>20200301</v>
       </c>
@@ -5806,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>20200301</v>
       </c>
@@ -5817,10 +5935,10 @@
         <v>0</v>
       </c>
       <c r="C291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>20200301</v>
       </c>
@@ -5828,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="C292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>20200302</v>
       </c>
@@ -5839,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="C293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>20200302</v>
       </c>
@@ -5850,10 +5968,10 @@
         <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>20200302</v>
       </c>
@@ -5861,10 +5979,10 @@
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>20200302</v>
       </c>
@@ -5872,10 +5990,10 @@
         <v>0</v>
       </c>
       <c r="C296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>20200302</v>
       </c>
@@ -5883,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="C297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>20200302</v>
       </c>
@@ -5894,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="C298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>20200302</v>
       </c>
@@ -5905,21 +6023,24 @@
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>20200302</v>
       </c>
       <c r="B300" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="D300" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>20200303</v>
       </c>
@@ -5927,10 +6048,10 @@
         <v>0</v>
       </c>
       <c r="C301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>20200303</v>
       </c>
@@ -5938,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="C302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>20200303</v>
       </c>
@@ -5949,10 +6070,10 @@
         <v>0</v>
       </c>
       <c r="C303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>20200303</v>
       </c>
@@ -5960,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="C304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>20200303</v>
       </c>
@@ -5971,10 +6092,10 @@
         <v>0</v>
       </c>
       <c r="C305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>20200303</v>
       </c>
@@ -5982,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="C306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>20200303</v>
       </c>
@@ -5993,10 +6114,10 @@
         <v>0</v>
       </c>
       <c r="C307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>20200303</v>
       </c>
@@ -6004,10 +6125,10 @@
         <v>0</v>
       </c>
       <c r="C308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>20200303</v>
       </c>
@@ -6015,10 +6136,10 @@
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20200303</v>
       </c>
@@ -6026,10 +6147,10 @@
         <v>0</v>
       </c>
       <c r="C310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>20200303</v>
       </c>
@@ -6037,21 +6158,24 @@
         <v>0</v>
       </c>
       <c r="C311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>20200303</v>
       </c>
       <c r="B312" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="D312" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>20200303</v>
       </c>
@@ -6059,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="C313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>20200304</v>
       </c>
@@ -6070,10 +6194,10 @@
         <v>0</v>
       </c>
       <c r="C314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>20200304</v>
       </c>
@@ -6081,10 +6205,10 @@
         <v>0</v>
       </c>
       <c r="C315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>20200304</v>
       </c>
@@ -6092,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="C316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>20200304</v>
       </c>
@@ -6103,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="C317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>20200304</v>
       </c>
@@ -6114,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="C318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>20200304</v>
       </c>
@@ -6125,21 +6249,24 @@
         <v>0</v>
       </c>
       <c r="C319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>20200304</v>
       </c>
       <c r="B320" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C320" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+      <c r="D320" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>20200305</v>
       </c>
@@ -6147,10 +6274,10 @@
         <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>20200305</v>
       </c>
@@ -6158,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="C322" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>20200305</v>
       </c>
@@ -6169,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="C323" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>20200305</v>
       </c>
@@ -6180,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20200305</v>
       </c>
@@ -6191,10 +6318,10 @@
         <v>0</v>
       </c>
       <c r="C325" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>20200305</v>
       </c>
@@ -6202,10 +6329,10 @@
         <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>20200305</v>
       </c>
@@ -6213,10 +6340,10 @@
         <v>0</v>
       </c>
       <c r="C327" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>20200305</v>
       </c>
@@ -6224,10 +6351,10 @@
         <v>0</v>
       </c>
       <c r="C328" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>20200305</v>
       </c>
@@ -6235,10 +6362,10 @@
         <v>0</v>
       </c>
       <c r="C329" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>20200305</v>
       </c>
@@ -6246,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="C330" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>20200305</v>
       </c>
@@ -6257,21 +6384,24 @@
         <v>0</v>
       </c>
       <c r="C331" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>20200305</v>
       </c>
       <c r="B332" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C332" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="D332" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>20200306</v>
       </c>
@@ -6279,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="C333" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>20200306</v>
       </c>
@@ -6290,10 +6420,10 @@
         <v>0</v>
       </c>
       <c r="C334" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>20200306</v>
       </c>
@@ -6301,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="C335" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>20200306</v>
       </c>
@@ -6312,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="C336" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>20200306</v>
       </c>
@@ -6323,21 +6453,24 @@
         <v>0</v>
       </c>
       <c r="C337" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>20200306</v>
       </c>
       <c r="B338" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C338" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="D338" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>20200307</v>
       </c>
@@ -6345,10 +6478,10 @@
         <v>0</v>
       </c>
       <c r="C339" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>20200307</v>
       </c>
@@ -6356,10 +6489,10 @@
         <v>0</v>
       </c>
       <c r="C340" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>20200307</v>
       </c>
@@ -6367,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="C341" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>20200307</v>
       </c>
@@ -6378,10 +6511,10 @@
         <v>0</v>
       </c>
       <c r="C342" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>20200307</v>
       </c>
@@ -6389,10 +6522,10 @@
         <v>0</v>
       </c>
       <c r="C343" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>20200307</v>
       </c>
@@ -6400,21 +6533,24 @@
         <v>0</v>
       </c>
       <c r="C344" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>20200307</v>
       </c>
       <c r="B345" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C345" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="D345" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>20200308</v>
       </c>
@@ -6422,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="C346" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>20200308</v>
       </c>
@@ -6433,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="C347" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>20200308</v>
       </c>
@@ -6444,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="C348" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>20200308</v>
       </c>
@@ -6455,10 +6591,10 @@
         <v>0</v>
       </c>
       <c r="C349" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>20200309</v>
       </c>
@@ -6466,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="C350" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>20200309</v>
       </c>
@@ -6477,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="C351" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>20200309</v>
       </c>
@@ -6488,21 +6624,24 @@
         <v>0</v>
       </c>
       <c r="C352" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>20200309</v>
       </c>
       <c r="B353" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C353" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="D353" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>20200310</v>
       </c>
@@ -6510,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="C354" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>20200310</v>
       </c>
@@ -6521,10 +6660,10 @@
         <v>0</v>
       </c>
       <c r="C355" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>20200310</v>
       </c>
@@ -6532,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="C356" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>20200310</v>
       </c>
@@ -6543,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="C357" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>20200310</v>
       </c>
@@ -6554,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="C358" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>20200310</v>
       </c>
@@ -6565,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="C359" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>20200311</v>
       </c>
@@ -6576,10 +6715,10 @@
         <v>0</v>
       </c>
       <c r="C360" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>20200311</v>
       </c>
@@ -6587,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="C361" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>20200311</v>
       </c>
@@ -6598,10 +6737,10 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>20200311</v>
       </c>
@@ -6609,21 +6748,24 @@
         <v>0</v>
       </c>
       <c r="C363" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>20200311</v>
       </c>
       <c r="B364" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C364" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="D364" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>20200312</v>
       </c>
@@ -6631,10 +6773,10 @@
         <v>0</v>
       </c>
       <c r="C365" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>20200312</v>
       </c>
@@ -6642,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="C366" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>20200312</v>
       </c>
@@ -6653,10 +6795,10 @@
         <v>0</v>
       </c>
       <c r="C367" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>20200312</v>
       </c>
@@ -6664,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="C368" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>20200312</v>
       </c>
@@ -6675,10 +6817,10 @@
         <v>0</v>
       </c>
       <c r="C369" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>20200312</v>
       </c>
@@ -6686,21 +6828,24 @@
         <v>0</v>
       </c>
       <c r="C370" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>20200312</v>
       </c>
       <c r="B371" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C371" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="D371" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>20200313</v>
       </c>
@@ -6708,10 +6853,10 @@
         <v>0</v>
       </c>
       <c r="C372" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>20200313</v>
       </c>
@@ -6719,10 +6864,10 @@
         <v>0</v>
       </c>
       <c r="C373" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>20200313</v>
       </c>
@@ -6730,10 +6875,10 @@
         <v>0</v>
       </c>
       <c r="C374" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>20200313</v>
       </c>
@@ -6741,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="C375" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>20200313</v>
       </c>
@@ -6752,10 +6897,10 @@
         <v>0</v>
       </c>
       <c r="C376" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>20200313</v>
       </c>
@@ -6763,21 +6908,24 @@
         <v>0</v>
       </c>
       <c r="C377" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>20200313</v>
       </c>
       <c r="B378" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C378" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="D378" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>20200314</v>
       </c>
@@ -6785,10 +6933,10 @@
         <v>0</v>
       </c>
       <c r="C379" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>20200314</v>
       </c>
@@ -6796,10 +6944,10 @@
         <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>20200314</v>
       </c>
@@ -6807,10 +6955,10 @@
         <v>0</v>
       </c>
       <c r="C381" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>20200314</v>
       </c>
@@ -6818,21 +6966,24 @@
         <v>0</v>
       </c>
       <c r="C382" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>20200314</v>
       </c>
       <c r="B383" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C383" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="D383" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>20200315</v>
       </c>
@@ -6840,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="C384" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>20200315</v>
       </c>
@@ -6851,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="C385" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>20200315</v>
       </c>
@@ -6862,10 +7013,10 @@
         <v>0</v>
       </c>
       <c r="C386" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>20200315</v>
       </c>
@@ -6873,21 +7024,24 @@
         <v>0</v>
       </c>
       <c r="C387" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>20200315</v>
       </c>
       <c r="B388" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C388" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="D388" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>20200316</v>
       </c>
@@ -6895,10 +7049,10 @@
         <v>0</v>
       </c>
       <c r="C389" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>20200316</v>
       </c>
@@ -6906,10 +7060,10 @@
         <v>0</v>
       </c>
       <c r="C390" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>20200316</v>
       </c>
@@ -6917,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="C391" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>20200316</v>
       </c>
@@ -6928,21 +7082,24 @@
         <v>0</v>
       </c>
       <c r="C392" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>20200316</v>
       </c>
       <c r="B393" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C393" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="D393" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>20200316</v>
       </c>
@@ -6950,10 +7107,10 @@
         <v>0</v>
       </c>
       <c r="C394" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>20200317</v>
       </c>
@@ -6961,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="C395" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>20200317</v>
       </c>
@@ -6972,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="C396" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>20200317</v>
       </c>
@@ -6983,21 +7140,24 @@
         <v>0</v>
       </c>
       <c r="C397" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>20200317</v>
       </c>
       <c r="B398" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C398" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="D398" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>20200317</v>
       </c>
@@ -7005,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="C399" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>20200318</v>
       </c>
@@ -7016,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="C400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>20200318</v>
       </c>
@@ -7027,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="C401" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>20200318</v>
       </c>
@@ -7038,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="C402" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>20200318</v>
       </c>
@@ -7049,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="C403" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>20200318</v>
       </c>
@@ -7060,10 +7220,10 @@
         <v>0</v>
       </c>
       <c r="C404" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>20200318</v>
       </c>
@@ -7071,10 +7231,10 @@
         <v>0</v>
       </c>
       <c r="C405" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>20200318</v>
       </c>
@@ -7082,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="C406" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>20200318</v>
       </c>
@@ -7093,10 +7253,10 @@
         <v>0</v>
       </c>
       <c r="C407" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>20200318</v>
       </c>
@@ -7104,32 +7264,35 @@
         <v>0</v>
       </c>
       <c r="C408" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>20200318</v>
       </c>
       <c r="B409" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C409" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="D409" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>20200319</v>
       </c>
       <c r="B410" t="s">
-        <v>0</v>
+        <v>453</v>
       </c>
       <c r="C410" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>20200319</v>
       </c>
@@ -7137,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="C411" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>20200319</v>
       </c>
@@ -7148,10 +7311,10 @@
         <v>0</v>
       </c>
       <c r="C412" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>20200319</v>
       </c>
@@ -7159,10 +7322,10 @@
         <v>0</v>
       </c>
       <c r="C413" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>20200319</v>
       </c>
@@ -7170,21 +7333,24 @@
         <v>0</v>
       </c>
       <c r="C414" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>20200319</v>
       </c>
       <c r="B415" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C415" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="D415" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>20200319</v>
       </c>
@@ -7192,10 +7358,10 @@
         <v>0</v>
       </c>
       <c r="C416" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>20200320</v>
       </c>
@@ -7203,10 +7369,10 @@
         <v>0</v>
       </c>
       <c r="C417" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>20200320</v>
       </c>
@@ -7214,10 +7380,10 @@
         <v>0</v>
       </c>
       <c r="C418" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>20200320</v>
       </c>
@@ -7225,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="C419" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>20200320</v>
       </c>
@@ -7236,10 +7402,10 @@
         <v>0</v>
       </c>
       <c r="C420" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>20200320</v>
       </c>
@@ -7247,10 +7413,10 @@
         <v>0</v>
       </c>
       <c r="C421" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>20200320</v>
       </c>
@@ -7258,21 +7424,24 @@
         <v>0</v>
       </c>
       <c r="C422" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>20200320</v>
       </c>
       <c r="B423" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C423" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="D423" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>20200321</v>
       </c>
@@ -7280,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="C424" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>20200321</v>
       </c>
@@ -7291,10 +7460,10 @@
         <v>0</v>
       </c>
       <c r="C425" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>20200321</v>
       </c>
@@ -7302,10 +7471,10 @@
         <v>0</v>
       </c>
       <c r="C426" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>20200321</v>
       </c>
@@ -7313,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="C427" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>20200321</v>
       </c>
@@ -7324,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="C428" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>20200321</v>
       </c>
@@ -7335,22 +7504,25 @@
         <v>0</v>
       </c>
       <c r="C429" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>20200321</v>
       </c>
       <c r="B430" t="s">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="C430" t="s">
-        <v>429</v>
+        <v>451</v>
+      </c>
+      <c r="D430" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C275"/>
+  <autoFilter ref="A1:C430"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>

--- a/国内联播快讯.xlsx
+++ b/国内联播快讯.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="494">
   <si>
     <t>国内联播快讯</t>
   </si>
@@ -1773,6 +1773,126 @@
   <si>
     <t>国内联播快讯</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>应对旱情 云南实施436项抗旱应急工程今年以来，云南旱情持续发展，目前部分地区出现人畜饮水困难、农作物受灾等情况。云南投入4.1亿元，计划实施436项抗旱应急工程，其中183项已建成并投入使用。</t>
+  </si>
+  <si>
+    <t>新疆南疆启动“煤改电”项目 惠及近29万户居民今年，新疆对南疆近29万户居民进行“煤改电”供暖设施改造，预计10月31日前完工，将有效改善居民生活环境及当地空气质量。</t>
+  </si>
+  <si>
+    <t>又是一年花草香 再见春日江山丽在湖北武汉，满城樱花盛放，灿若云霞。东湖樱园上万株樱花树下，虽然不似往年人头攒动，但通过云直播，仍在奋战的人们和归家的“白衣战士”共同见证，武汉春来，让“我们一起看春光”。共赏春。在河南洛阳，微风拂过，樱花飘落成雨，温柔了春日时光。在广西岑溪，三角梅、紫荆等竞相绽放，姹紫嫣红。在浙江嵊州，万亩油菜花扮靓乡村，引来游人纷纷。</t>
+  </si>
+  <si>
+    <t>我国赴柬抗疫医疗专家组抵达金边 应柬埔寨政府邀请，今天（3月23日），中国政府赴柬埔寨抗疫医疗专家组从广西南宁出发抵达金边。专家组由国家卫生健康委组建，广西选派了7名呼吸、公共卫生等领域的专家。另外，广西还向柬埔寨捐赠了一批抗疫物资。新疆中小学和中职学校全面开学复课从今天（3月23日）开始，新疆各地的小学、初中、高中和中职学校全部开学复课。各学校按照属地管理原则，一校一策，全力保证校园安全、教学有序、防疫到位。此前，新疆初三、高三、中职学校毕业年级已于3月16日开学复课。</t>
+  </si>
+  <si>
+    <t>世界气象日：各地开展线上科普活动 今天（3月23日）是世界气象日，主题为“气候与水”，各地气象部门将科普展览和讲座转移到线上，让公众足不出户了解气象新技术，学习防灾减灾知识，呼吁大家关注气候变化、保护水资源。</t>
+  </si>
+  <si>
+    <t>黄河向乌梁素海应急生态补水结束 截至今天（3月23日）凌晨，黄河向内蒙古乌梁素海应急生态补水结束。补水历时35天，补水2亿立方米，比去年同期多2000万立方米。从2018年至今，通过补水置换水体，乌梁素海整体生态环境得到明显改善。</t>
+  </si>
+  <si>
+    <t>2022杭州亚残运会会徽口号发布 今天（3月23日），杭州2022年第4届亚残运会会徽、口号正式向全球发布。杭州亚残运会会徽为“向前”（Ever Forward），主体图形呈现了坐着轮椅的残疾人运动员奋勇向前的姿态。杭州亚残运会口号为“Hearts Meet, Dreams Shine”（心相约，梦闪耀），简洁大气，激励人心。</t>
+  </si>
+  <si>
+    <t>“春暖花开 国聘行动”累计提供超21万个职位 由中央广播电视总台联合国资委共同发起，央视频携手国投人力共同主办的大型线上招聘活动“春暖花开 国聘行动”上线20天来，共吸引央企、大型国企、知名民企和社会机构近3200家，已累计向应届大学毕业生等求职者提供超过21万个优质招聘岗位。目前，有意向的知名企业数量还在持续增加，招聘规模持续扩大。</t>
+  </si>
+  <si>
+    <t>百花竞放春意浓 春日里赏春正当时。在浙江金华磐安县，两万亩樱花次第开放，铺满山谷；在海南海口琼山区，百亩三角梅芬芳吐艳，美不胜收；在江西萍乡湘东区，五百亩桃花如约而至，处处彰显生机；在江苏盐城大丰区，3000万株郁金香迎风绽放，引来游客驻足观赏。</t>
+  </si>
+  <si>
+    <t>工业和信息化部：加快5G网络建设 促进5G终端消费工业和信息化部今天（3月24日）发布《关于推动5G加快发展的通知》，要求加快5G网络建设进度，鼓励基础电信企业通过套餐升级优惠、信用购机等举措促进5G终端消费，加快用户向5G迁移。</t>
+  </si>
+  <si>
+    <t>铁路部门对25条城际铁路票价打折优惠 国铁集团决定对广珠城际、吉林至珲春至图们、成都至乐山至峨眉山等25条城际铁路部分动车组票价实行打折优惠，最大折扣幅度为5.5折，将从3月25日起陆续实施。</t>
+  </si>
+  <si>
+    <t>杭州地铁1号线三期工程成功穿越运营机场 今天（3月24日）上午，杭州地铁1号线三期工程成功穿越萧山国际机场，作为服务2022年杭州亚运会的重要地铁线路，杭州地铁1号线完工后将实现与萧山机场的旅客通道无缝接驳。</t>
+  </si>
+  <si>
+    <t>多地海关连查走私濒危野生动物及其制品海关总署今天（3月24日）公布，在近日开展的打击野生动物及其制品走私“护卫2020”专项行动中，相继查获多种濒危野生动物及制品，其中查获走私犀牛角36.6公斤，查证走私海马干2.9吨。三江源定位255个雪豹分布点近日，青海定位三江源地区255个雪豹分布位点，为科学保护雪豹提供最基础数据。三江源地区现存雪豹或已超过1000只，是世界雪豹连片分布最集中的区域之一。</t>
+  </si>
+  <si>
+    <t>春光好时节 春色惹人醉眼下在四川成都蒲江县，不仅茶树吐绿，茶园里的垂丝海棠也进入盛花期，芬芳迷人。山东淄博的玉兰花开，花瓣晶莹如玉。江苏无锡鼋头渚的3万多株樱花绽放，美不胜收。在西藏林芝，2400多亩油菜花开，金色的油菜花海和雪山相映成趣，形成独具特色的高原油菜花田。</t>
+  </si>
+  <si>
+    <t>四部委要求做好进出鄂人员交通保障 交通运输部、公安部等四部委24日发出通知，要求各地精心组织“点对点”返岗返乡包车工作，有序恢复进出湖北道路客运服务，强化公路通行保障及防疫和安全管理。进出北京的省级道路客运暂不恢复。</t>
+  </si>
+  <si>
+    <t>海关总署：各地海关全力做好口岸检疫工作 海关总署近日统一部署各地海关全力做好口岸检疫工作，依法防控境外疫情输入。到今天（3月25日）零时，上海、大连、石家庄等10个海关共对38架次航班开展检疫，对发现的确诊病例、疑似病例等“四类人员”全部按照地方联防联控机制要求妥善处置。</t>
+  </si>
+  <si>
+    <t>中国第三批抗疫医疗专家组启程赴意大利 由福建省组建的中国第三批赴意大利抗疫医疗专家组，今天（3月25日）启程赴意大利。第三批专家组共有14人，随行还携带一批福建捐赠的医疗救治物资，将在意大利托斯卡纳大区协助当地做好应对新冠肺炎疫情工作。</t>
+  </si>
+  <si>
+    <t>首趟搭载防疫物资中欧班列紧急驰援欧洲 今天（3月25日），首趟搭载出口欧洲防疫物资的X8020次中欧班列从新疆阿拉山口换装出境。此趟中欧班列搭载了70多个标准集装箱的防疫物资，包括11万多个医用口罩和766套防护服，目的地为西班牙马德里。</t>
+  </si>
+  <si>
+    <t>全国157处大型灌区陆续开展春灌截止到今天（3月25日），全国已有17个省市自治区157处大型灌区开始春灌，已累计灌溉农田4500多万亩，进度好于往年。今年，全国481个大型灌区春灌计划覆盖面积2亿亩，春灌计划引水量408亿立方米。</t>
+  </si>
+  <si>
+    <t>赣深高铁广东段横岭隧道今天贯通 今天（3月25日），赣深高铁广东段横岭隧道实现贯通，隧道全长7874.81米。赣深高铁设计时速350公里，预计2021年建成通车。通车后，深圳到赣州将由现在的近7小时缩短到2小时。</t>
+  </si>
+  <si>
+    <t>繁花似锦 美不胜收安徽郎溪县，千亩樱花竞相绽放在山林之间。春风袭来，樱花如雨落，吸引了大量游客和摄影爱好者。贵州赤水，3000多亩各色鲜花竞相开放。连片红叶石楠和梨花、油菜花等组成了一幅美丽的生态画卷。浙江宁波奉化上万亩桃花进入了盛花期，置身桃林间，桃枝妖娆，人在景中行，美不胜收。</t>
+  </si>
+  <si>
+    <t>国家发改委：56亿推进以工代赈 国家发展改革委今天（3月26日）已分批下达56亿元推进贫困地区以工代赈，将吸纳约30万受疫情影响无法外出的贫困劳动力，在家门口参与农田水利、乡村道路等工程建设，可获得劳务报酬8亿多元。</t>
+  </si>
+  <si>
+    <t>前2个月我国对外投资同比增长1.8% 商务部最新数据显示，今年1—2月，我国境内投资者共对全球147个国家和地区的1733家境外企业进行了非金融类直接投资，累计实现投资1078.6亿元人民币 ，同比增长1.8%，其中，对“一带一路”投资合作增幅较大。</t>
+  </si>
+  <si>
+    <t>百日千万网络招聘专项行动日前启动近日，人力资源社会保障部会同有关方面启动百日千万网络招聘专项行动。此次行动的主会场设在中国公共招聘网、中国国家人才网，各省同步设有分会场。求职者还可以通过央视频等网站获取岗位信息。行动将持续至6月底，提供超过千万个就业岗位。</t>
+  </si>
+  <si>
+    <t>海军第33批护航编队凯旋3月25日，由西宁舰、潍坊舰和可可西里湖舰组成的海军第33批护航编队，完成亚丁湾索马里海域护航任务抵达青岛。在210天的时间里，编队安全护送24批41艘次中外船舶，并先后参加了中俄南非和中俄伊朗海上联合演习。</t>
+  </si>
+  <si>
+    <t>黄帝故里拜祖大典 举行今天（3月26日），黄帝故里拜祖大典在河南郑州市新郑黄帝故里举行。今年大典以“同根同祖同源，和平和睦和谐”为主题，以现场简约而庄严的仪式、全球网上拜祖等线上线下的形式进行。</t>
+  </si>
+  <si>
+    <t>多地鲜花盛开这几天，在甘肃陇南，成片的油菜花像是给大地铺上了一层金灿灿的地毯。在重庆丰都县，成片的李花随风飘扬如春雪一般。在山东枣庄，万亩桃花竞相开放，放眼望去，漫山遍野的桃花将各山脚染成红云一片。在河南固始，百万株郁金香到了最佳观赏期，吸引游客前来赏花踏青。</t>
+  </si>
+  <si>
+    <t>银保监会：加强金融支持产业链协同复工复产力度 银保监会发布通知，要求加大对产业链核心企业的金融支持力度，并通过应收账款融资、订单融资等方式，加大对产业链上下游中小微企业的支持。同时，增加外贸信贷投放，支持全球产业链协同发展。鼓励保险机构和政策性担保机构为产业链上下游中小微企业获取融资提供增信。</t>
+  </si>
+  <si>
+    <t>三部门发布做好疫情防控和学校食品安全工作通知 市场监管总局、教育部、公安部近日联合发布通知，要求全力保障学生食品安全和身体健康，严防发生群体性食源性疾病事件。重点排查从业人员健康状况，严格消毒餐饮具，保持加工制作和就餐场所清洁卫生。</t>
+  </si>
+  <si>
+    <t>民航局大幅调减国际客运航班量 安排复工复产包机航班民航局日前发布通知，决定进一步调减国际客运航班运行数量，国内每家航空公司经营至任一国家的航线只能保留一条，且每条航线每周运营班次不得超过一班，外国每家航空公司经营至我国的航线只能保留一条，且每周运营班次不得超过一班。航班计划自3月29日起施行。为助力国内企业复工复产，各航空公司在现有定期航班的基础上，已专门安排复工复产包机航班超过770班，保障超过4.5万人次出行。</t>
+  </si>
+  <si>
+    <t>国家林草局：除湖北外全国林业企业复工率达92% 来自国家林草局的最新统计数据显示，随着当前疫情防控形势持续向好，各地林业企业正在稳妥有序复工复产，截至3月22日，除湖北省外，全国林业企业复工率达92%。</t>
+  </si>
+  <si>
+    <t>合安高铁正线铺轨完成 全长162公里的合安高铁日前完成正线铺轨，预计今年年底正式开通。合安高铁是国家“八纵八横”铁路网规划京港高铁的组成部分，建成后从合肥至安庆的时间，将从现在的2小时缩短到40分钟。</t>
+  </si>
+  <si>
+    <t>福建泉厦漳城市联盟路跨海大桥合龙 福建泉厦漳城市联盟路跨海大桥日前成功合龙。至此，这条连接泉州、厦门和漳州的新高速公路，实现泉州段全线贯通。</t>
+  </si>
+  <si>
+    <t>中国邮政中欧班列从浙江义乌启程 今天（3月27日），中国邮政在浙江义乌开行了首趟中欧班列。班列集结了来自浙江的20多万件邮件，预计在13天后抵达波兰，为欧洲各国送去防疫物资和小商品。</t>
+  </si>
+  <si>
+    <t>湖北邮政快递业实现超五成服务能力 邮政业安全监管信息系统数据显示，截至3月27日，湖北省主要寄递企业共揽收包裹293.78万件，为去年同期的62.7%。目前，湖北省邮政快递业已经实现超五成服务能力，武汉以外湖北各地复产率已近七成。</t>
+  </si>
+  <si>
+    <t>浙大邵逸夫医院连线全球47所医疗机构 浙大邵逸夫医院日前连线美国、韩国、阿联酋等国家和地区47个医疗机构，介绍了新冠病毒的防治措施，视频还连线了目前仍在武汉、荆门一线的援鄂医疗队专家，与大家分享了救治经验。</t>
+  </si>
+  <si>
+    <t>中国赴老挝抗疫医疗专家组 从云南启程今天（3月29日），中国赴老挝抗疫医疗专家组从云南启程，专家组共12人，涵盖感染、重症、护理、检验、中医等专业，专家组还随行携带了一批由云南捐赠的医疗救治物资。</t>
+  </si>
+  <si>
+    <t>北京大兴机场今起将迎多家航司航班转场 今天（3月29日），厦门航空、重庆航空、东海航空三家航空公司在首都机场运营的全部航班，转至北京大兴国际机场运营。根据计划，在4月12日和4月26日，南航、东航也将分别把部分航班由首都机场转至大兴机场运营。</t>
+  </si>
+  <si>
+    <t>中石化医用口罩核心材料生产基地投产 今天（3月29日），中国石化扬州仪征化纤首条熔喷布生产线成功投产，熔喷布是N95口罩、普通医用外科口罩的核心原料，投产后日产原料将达18吨，可用于生产1800万片医用平面口罩，未来中国石化将建设16条熔喷布生产线，打造全国最大的熔喷布生产基地。</t>
+  </si>
+  <si>
+    <t>新疆巴音布鲁克迎来首批迁徙天鹅 这两天，新疆天山深处的巴音布鲁克天鹅湖，迎来今年春季首批近2000只迁徙天鹅“回家”。当地保护站工作人员通过人工投喂的方式，为天鹅补充食物。到4月底，回归的天鹅将达到上万只。</t>
   </si>
 </sst>
 </file>
@@ -2718,10 +2838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D430"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" workbookViewId="0">
-      <selection activeCell="B410" sqref="B410"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="B466" sqref="B466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7521,6 +7641,446 @@
         <v>452</v>
       </c>
     </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>20200322</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>20200322</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>20200322</v>
+      </c>
+      <c r="B433" t="s">
+        <v>410</v>
+      </c>
+      <c r="C433" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>20200323</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>20200323</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>20200323</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>20200323</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>20200323</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>20200323</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>20200324</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>20200324</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>20200324</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>20200324</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>20200324</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>20200325</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>20200325</v>
+      </c>
+      <c r="B446" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>20200325</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>20200325</v>
+      </c>
+      <c r="B448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>20200325</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>20200325</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>20200325</v>
+      </c>
+      <c r="B451" t="s">
+        <v>410</v>
+      </c>
+      <c r="C451" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>20200326</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>20200326</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>20200326</v>
+      </c>
+      <c r="B454" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>20200326</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>20200326</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>20200326</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>20200327</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>20200327</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>20200327</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+      <c r="C460" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>20200327</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>20200327</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>20200327</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>20200327</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+      <c r="C464" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>20200328</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>20200328</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+      <c r="C466" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>20200329</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>20200329</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>20200329</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>20200329</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C430"/>
   <phoneticPr fontId="18" type="noConversion"/>
